--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.25556892056994</v>
+        <v>7.255568920569896</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.732291956406918</v>
+        <v>2.732291956406976</v>
       </c>
       <c r="E2">
-        <v>5.05501515329877</v>
+        <v>5.055015153298838</v>
       </c>
       <c r="F2">
-        <v>35.58496268777996</v>
+        <v>35.58496268777994</v>
       </c>
       <c r="G2">
         <v>27.24190944864613</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.764963402661981</v>
+        <v>4.76496340266195</v>
       </c>
       <c r="J2">
-        <v>43.77177998672819</v>
+        <v>43.77177998672815</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.36147933698776</v>
+        <v>29.36147933698774</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.894105344188923</v>
+        <v>6.894105344188955</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.497748709822473</v>
+        <v>2.497748709822423</v>
       </c>
       <c r="E3">
         <v>5.248184301329215</v>
       </c>
       <c r="F3">
-        <v>33.26290068759914</v>
+        <v>33.26290068759917</v>
       </c>
       <c r="G3">
-        <v>25.54287601218504</v>
+        <v>25.54287601218507</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.008857362834472</v>
+        <v>5.008857362834538</v>
       </c>
       <c r="J3">
-        <v>40.70461897788793</v>
+        <v>40.70461897788785</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.29814531886752</v>
+        <v>27.29814531886745</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.666726236330099</v>
+        <v>6.666726236330122</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.352860669601259</v>
+        <v>2.352860669601255</v>
       </c>
       <c r="E4">
-        <v>5.368882756016669</v>
+        <v>5.368882756016399</v>
       </c>
       <c r="F4">
-        <v>31.85077283677506</v>
+        <v>31.85077283677504</v>
       </c>
       <c r="G4">
-        <v>24.5194576779728</v>
+        <v>24.51945767797278</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.160748196115515</v>
+        <v>5.160748196115351</v>
       </c>
       <c r="J4">
-        <v>38.73150699227465</v>
+        <v>38.73150699227456</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>25.97267883013482</v>
+        <v>25.9726788301348</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.572808674581944</v>
+        <v>6.572808674581999</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.293466635927391</v>
+        <v>2.293466635927392</v>
       </c>
       <c r="E5">
-        <v>5.418655519262784</v>
+        <v>5.418655519262786</v>
       </c>
       <c r="F5">
-        <v>31.27875734000038</v>
+        <v>31.27875734000039</v>
       </c>
       <c r="G5">
-        <v>24.10737150907006</v>
+        <v>24.10737150907009</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.223252246614559</v>
+        <v>5.223252246614591</v>
       </c>
       <c r="J5">
-        <v>37.90424228038683</v>
+        <v>37.90424228038681</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.41738666116874</v>
+        <v>25.4173866611687</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.557141330645035</v>
+        <v>6.557141330644929</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.283579625520967</v>
+        <v>2.283579625521139</v>
       </c>
       <c r="E6">
-        <v>5.426957388722156</v>
+        <v>5.426957388722223</v>
       </c>
       <c r="F6">
-        <v>31.18398716457663</v>
+        <v>31.18398716457668</v>
       </c>
       <c r="G6">
-        <v>24.03924753885617</v>
+        <v>24.03924753885621</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.233669638144019</v>
+        <v>5.23366963814405</v>
       </c>
       <c r="J6">
-        <v>37.76545760157774</v>
+        <v>37.76545760157779</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.66546456747971</v>
+        <v>6.665464567479759</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.352061241476335</v>
+        <v>2.352061241476272</v>
       </c>
       <c r="E7">
-        <v>5.369551554921292</v>
+        <v>5.369551554921426</v>
       </c>
       <c r="F7">
-        <v>31.84304432517991</v>
+        <v>31.84304432517992</v>
       </c>
       <c r="G7">
-        <v>24.51387993319267</v>
+        <v>24.51387993319268</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.161588599408288</v>
+        <v>5.161588599408487</v>
       </c>
       <c r="J7">
-        <v>38.72044492301146</v>
+        <v>38.72044492301136</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>25.96525184772717</v>
+        <v>25.96525184772707</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.132123631548932</v>
+        <v>7.132123631548887</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.651519252612207</v>
+        <v>2.651519252612148</v>
       </c>
       <c r="E8">
-        <v>5.121224491246639</v>
+        <v>5.121224491246571</v>
       </c>
       <c r="F8">
-        <v>34.78141496925209</v>
+        <v>34.78141496925203</v>
       </c>
       <c r="G8">
-        <v>26.65191141181164</v>
+        <v>26.65191141181159</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.848656962151443</v>
+        <v>4.848656962151376</v>
       </c>
       <c r="J8">
-        <v>42.73248353911029</v>
+        <v>42.73248353911028</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>28.66192445083669</v>
+        <v>28.66192445083666</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.000443863605215</v>
+        <v>8.000443863605229</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.238809013715798</v>
+        <v>3.238809013715687</v>
       </c>
       <c r="E9">
-        <v>4.64772837559082</v>
+        <v>4.647728375590887</v>
       </c>
       <c r="F9">
-        <v>41.10267347830092</v>
+        <v>41.10267347830116</v>
       </c>
       <c r="G9">
-        <v>31.68215378066087</v>
+        <v>31.68215378066109</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.248705145613743</v>
+        <v>4.248705145613912</v>
       </c>
       <c r="J9">
-        <v>49.91904863392719</v>
+        <v>49.91904863392727</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>33.50787330840933</v>
+        <v>33.50787330840939</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.664709129805154</v>
+        <v>8.664709129805168</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.682387465147087</v>
+        <v>3.682387465147199</v>
       </c>
       <c r="E10">
-        <v>4.303033654278543</v>
+        <v>4.303033654278509</v>
       </c>
       <c r="F10">
-        <v>45.88547658459197</v>
+        <v>45.88547658459203</v>
       </c>
       <c r="G10">
-        <v>35.48264801955764</v>
+        <v>35.4826480195577</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.811816411099796</v>
+        <v>3.811816411099726</v>
       </c>
       <c r="J10">
-        <v>54.83725316652662</v>
+        <v>54.83725316652674</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>36.83640220306462</v>
+        <v>36.83640220306467</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.9875555171472</v>
+        <v>8.987555517147172</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.89038760441339</v>
+        <v>3.890387604413382</v>
       </c>
       <c r="E11">
-        <v>4.145558811035049</v>
+        <v>4.145558811035153</v>
       </c>
       <c r="F11">
-        <v>48.08767523444743</v>
+        <v>48.08767523444737</v>
       </c>
       <c r="G11">
-        <v>37.2303770428558</v>
+        <v>37.23037704285576</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.613121342730532</v>
+        <v>3.613121342730637</v>
       </c>
       <c r="J11">
-        <v>57.01137540635115</v>
+        <v>57.01137540635104</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>38.31115627063526</v>
+        <v>38.31115627063519</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.107714787876734</v>
+        <v>9.1077147878767</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.970439358602559</v>
+        <v>3.970439358602361</v>
       </c>
       <c r="E12">
-        <v>4.085694536655128</v>
+        <v>4.085694536654961</v>
       </c>
       <c r="F12">
-        <v>48.92797903919971</v>
+        <v>48.92797903919958</v>
       </c>
       <c r="G12">
-        <v>37.89703790034115</v>
+        <v>37.89703790034103</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.5378610729325</v>
+        <v>3.537861072932426</v>
       </c>
       <c r="J12">
-        <v>57.82720168556683</v>
+        <v>57.82720168556686</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>38.86510239840041</v>
+        <v>38.86510239840047</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,22 +836,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.953134194714416</v>
+        <v>3.953134194714483</v>
       </c>
       <c r="E13">
         <v>4.098600103015999</v>
       </c>
       <c r="F13">
-        <v>48.74667144813131</v>
+        <v>48.74667144813137</v>
       </c>
       <c r="G13">
-        <v>37.75320505112375</v>
+        <v>37.75320505112384</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.5540703327819</v>
+        <v>3.554070332781841</v>
       </c>
       <c r="J13">
         <v>57.65180101166448</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>38.74597943232001</v>
+        <v>38.74597943231999</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.997482533140936</v>
+        <v>8.997482533140937</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.896945109865819</v>
+        <v>3.89694510986589</v>
       </c>
       <c r="E14">
-        <v>4.14063924865901</v>
+        <v>4.140639248659076</v>
       </c>
       <c r="F14">
-        <v>48.15666216631118</v>
+        <v>48.15666216631136</v>
       </c>
       <c r="G14">
-        <v>37.28511238393357</v>
+        <v>37.28511238393376</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.606929954782249</v>
+        <v>3.606929954782252</v>
       </c>
       <c r="J14">
-        <v>57.07863291550509</v>
+        <v>57.07863291550521</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>38.35681255948435</v>
+        <v>38.35681255948442</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.945487221394371</v>
+        <v>8.945487221394357</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.862708611248451</v>
+        <v>3.862708611248432</v>
       </c>
       <c r="E15">
-        <v>4.166354817478814</v>
+        <v>4.166354817478847</v>
       </c>
       <c r="F15">
-        <v>47.79618472716994</v>
+        <v>47.79618472716996</v>
       </c>
       <c r="G15">
-        <v>36.9990950878228</v>
+        <v>36.99909508782279</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.639305737471049</v>
+        <v>3.639305737471043</v>
       </c>
       <c r="J15">
-        <v>56.72663310275689</v>
+        <v>56.72663310275693</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>38.11788807224015</v>
+        <v>38.11788807224017</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.643311968347319</v>
+        <v>8.643311968347337</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.668950614420195</v>
+        <v>3.668950614419997</v>
       </c>
       <c r="E16">
         <v>4.313300428522417</v>
       </c>
       <c r="F16">
-        <v>45.74229334039613</v>
+        <v>45.74229334039612</v>
       </c>
       <c r="G16">
         <v>35.3689772314825</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.824799232794396</v>
+        <v>3.82479923279449</v>
       </c>
       <c r="J16">
-        <v>54.69402779877643</v>
+        <v>54.69402779877648</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>36.73932338894349</v>
+        <v>36.73932338894353</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.454105768835314</v>
+        <v>8.454105768835378</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.551928254155098</v>
+        <v>3.551928254155023</v>
       </c>
       <c r="E17">
-        <v>4.403185373788555</v>
+        <v>4.403185373788587</v>
       </c>
       <c r="F17">
-        <v>44.49068012607918</v>
+        <v>44.49068012607901</v>
       </c>
       <c r="G17">
-        <v>34.37511212470728</v>
+        <v>34.37511212470714</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.938572940118121</v>
+        <v>3.938572940118181</v>
       </c>
       <c r="J17">
-        <v>53.43194714401334</v>
+        <v>53.43194714401324</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>35.88426758757968</v>
+        <v>35.88426758757959</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.343843786597251</v>
+        <v>8.343843786597253</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.485176587036798</v>
+        <v>3.48517658703679</v>
       </c>
       <c r="E18">
-        <v>4.454830929424334</v>
+        <v>4.454830929424401</v>
       </c>
       <c r="F18">
-        <v>43.77308444482953</v>
+        <v>43.77308444482948</v>
       </c>
       <c r="G18">
-        <v>33.80508495335888</v>
+        <v>33.80508495335883</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.00401672242157</v>
+        <v>4.004016722421631</v>
       </c>
       <c r="J18">
-        <v>52.69996817300665</v>
+        <v>52.6999681730066</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>35.38867014318063</v>
+        <v>35.38867014318055</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.31195646347256</v>
+        <v>8.311956463472598</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.462660752390422</v>
+        <v>3.462660752390471</v>
       </c>
       <c r="E19">
-        <v>4.47231173857</v>
+        <v>4.472311738570067</v>
       </c>
       <c r="F19">
-        <v>43.5304472983628</v>
+        <v>43.53044729836272</v>
       </c>
       <c r="G19">
-        <v>33.6123062213782</v>
+        <v>33.61230622137811</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.02617711975109</v>
+        <v>4.026177119751092</v>
       </c>
       <c r="J19">
-        <v>52.45104764566074</v>
+        <v>52.45104764566065</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>35.22018701595185</v>
+        <v>35.2201870159518</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.474395074134989</v>
+        <v>8.474395074135003</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.564325348576749</v>
+        <v>3.564325348576697</v>
       </c>
       <c r="E20">
-        <v>4.393623454513049</v>
+        <v>4.393623454513051</v>
       </c>
       <c r="F20">
-        <v>44.62366228658524</v>
+        <v>44.62366228658528</v>
       </c>
       <c r="G20">
-        <v>34.48072985574548</v>
+        <v>34.48072985574552</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.926461449152151</v>
+        <v>3.926461449152185</v>
       </c>
       <c r="J20">
-        <v>53.56691475904899</v>
+        <v>53.56691475904897</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.022342302996989</v>
+        <v>9.022342302997018</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.913410648416257</v>
+        <v>3.913410648416254</v>
       </c>
       <c r="E21">
         <v>4.12829882284499</v>
       </c>
       <c r="F21">
-        <v>48.32976468038868</v>
+        <v>48.32976468038866</v>
       </c>
       <c r="G21">
-        <v>37.42245135508243</v>
+        <v>37.4224513550824</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.5914042328202</v>
+        <v>3.591404232820229</v>
       </c>
       <c r="J21">
-        <v>57.24717409593447</v>
+        <v>57.24717409593444</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>38.47123215372893</v>
+        <v>38.47123215372889</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.368295177393005</v>
+        <v>9.368295177393062</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.149320500084768</v>
+        <v>4.149320500084823</v>
       </c>
       <c r="E22">
-        <v>3.953461172612323</v>
+        <v>3.953461172612389</v>
       </c>
       <c r="F22">
-        <v>50.79090345224741</v>
+        <v>50.79090345224721</v>
       </c>
       <c r="G22">
-        <v>39.37468335372799</v>
+        <v>39.3746833537278</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.37235456410366</v>
+        <v>3.372354564103651</v>
       </c>
       <c r="J22">
-        <v>59.60997032786428</v>
+        <v>59.60997032786415</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40.07668226225254</v>
+        <v>40.07668226225243</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.184733133259533</v>
+        <v>9.18473313325952</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.022542441753134</v>
+        <v>4.022542441753322</v>
       </c>
       <c r="E23">
-        <v>4.04695746288904</v>
+        <v>4.046957462889042</v>
       </c>
       <c r="F23">
-        <v>49.47271399441027</v>
+        <v>49.47271399441026</v>
       </c>
       <c r="G23">
-        <v>38.32915450030152</v>
+        <v>38.32915450030154</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.489263109205808</v>
+        <v>3.489263109205724</v>
       </c>
       <c r="J23">
-        <v>58.35214485267466</v>
+        <v>58.35214485267463</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.465226910556867</v>
+        <v>8.465226910556854</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.558719011924706</v>
+        <v>3.558719011924651</v>
       </c>
       <c r="E24">
-        <v>4.397946483283537</v>
+        <v>4.397946483283538</v>
       </c>
       <c r="F24">
-        <v>44.5635350884272</v>
+        <v>44.56353508842719</v>
       </c>
       <c r="G24">
         <v>34.43297599776712</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.931936946154686</v>
+        <v>3.931936946154659</v>
       </c>
       <c r="J24">
-        <v>53.50591592696327</v>
+        <v>53.50591592696319</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>35.93436210434312</v>
+        <v>35.93436210434308</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.77097052224462</v>
+        <v>7.77097052224459</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.078824830999418</v>
+        <v>3.078824830999413</v>
       </c>
       <c r="E25">
         <v>4.774856103819348</v>
       </c>
       <c r="F25">
-        <v>39.3514791324752</v>
+        <v>39.35147913247511</v>
       </c>
       <c r="G25">
-        <v>30.28817423519473</v>
+        <v>30.28817423519469</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.410010162893215</v>
+        <v>4.410010162893119</v>
       </c>
       <c r="J25">
-        <v>48.0428462855363</v>
+        <v>48.04284628553633</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>32.24076030096114</v>
+        <v>32.24076030096116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.255568920569896</v>
+        <v>7.25556892056994</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.732291956406976</v>
+        <v>2.732291956406918</v>
       </c>
       <c r="E2">
-        <v>5.055015153298838</v>
+        <v>5.05501515329877</v>
       </c>
       <c r="F2">
-        <v>35.58496268777994</v>
+        <v>35.58496268777996</v>
       </c>
       <c r="G2">
         <v>27.24190944864613</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.76496340266195</v>
+        <v>4.764963402661981</v>
       </c>
       <c r="J2">
-        <v>43.77177998672815</v>
+        <v>43.77177998672819</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.36147933698774</v>
+        <v>29.36147933698776</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.894105344188955</v>
+        <v>6.894105344188923</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.497748709822423</v>
+        <v>2.497748709822473</v>
       </c>
       <c r="E3">
         <v>5.248184301329215</v>
       </c>
       <c r="F3">
-        <v>33.26290068759917</v>
+        <v>33.26290068759914</v>
       </c>
       <c r="G3">
-        <v>25.54287601218507</v>
+        <v>25.54287601218504</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.008857362834538</v>
+        <v>5.008857362834472</v>
       </c>
       <c r="J3">
-        <v>40.70461897788785</v>
+        <v>40.70461897788793</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.29814531886745</v>
+        <v>27.29814531886752</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.666726236330122</v>
+        <v>6.666726236330099</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.352860669601255</v>
+        <v>2.352860669601259</v>
       </c>
       <c r="E4">
-        <v>5.368882756016399</v>
+        <v>5.368882756016669</v>
       </c>
       <c r="F4">
-        <v>31.85077283677504</v>
+        <v>31.85077283677506</v>
       </c>
       <c r="G4">
-        <v>24.51945767797278</v>
+        <v>24.5194576779728</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.160748196115351</v>
+        <v>5.160748196115515</v>
       </c>
       <c r="J4">
-        <v>38.73150699227456</v>
+        <v>38.73150699227465</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>25.9726788301348</v>
+        <v>25.97267883013482</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.572808674581999</v>
+        <v>6.572808674581944</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.293466635927392</v>
+        <v>2.293466635927391</v>
       </c>
       <c r="E5">
-        <v>5.418655519262786</v>
+        <v>5.418655519262784</v>
       </c>
       <c r="F5">
-        <v>31.27875734000039</v>
+        <v>31.27875734000038</v>
       </c>
       <c r="G5">
-        <v>24.10737150907009</v>
+        <v>24.10737150907006</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.223252246614591</v>
+        <v>5.223252246614559</v>
       </c>
       <c r="J5">
-        <v>37.90424228038681</v>
+        <v>37.90424228038683</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.4173866611687</v>
+        <v>25.41738666116874</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.557141330644929</v>
+        <v>6.557141330645035</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.283579625521139</v>
+        <v>2.283579625520967</v>
       </c>
       <c r="E6">
-        <v>5.426957388722223</v>
+        <v>5.426957388722156</v>
       </c>
       <c r="F6">
-        <v>31.18398716457668</v>
+        <v>31.18398716457663</v>
       </c>
       <c r="G6">
-        <v>24.03924753885621</v>
+        <v>24.03924753885617</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.23366963814405</v>
+        <v>5.233669638144019</v>
       </c>
       <c r="J6">
-        <v>37.76545760157779</v>
+        <v>37.76545760157774</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.665464567479759</v>
+        <v>6.66546456747971</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.352061241476272</v>
+        <v>2.352061241476335</v>
       </c>
       <c r="E7">
-        <v>5.369551554921426</v>
+        <v>5.369551554921292</v>
       </c>
       <c r="F7">
-        <v>31.84304432517992</v>
+        <v>31.84304432517991</v>
       </c>
       <c r="G7">
-        <v>24.51387993319268</v>
+        <v>24.51387993319267</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.161588599408487</v>
+        <v>5.161588599408288</v>
       </c>
       <c r="J7">
-        <v>38.72044492301136</v>
+        <v>38.72044492301146</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>25.96525184772707</v>
+        <v>25.96525184772717</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.132123631548887</v>
+        <v>7.132123631548932</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.651519252612148</v>
+        <v>2.651519252612207</v>
       </c>
       <c r="E8">
-        <v>5.121224491246571</v>
+        <v>5.121224491246639</v>
       </c>
       <c r="F8">
-        <v>34.78141496925203</v>
+        <v>34.78141496925209</v>
       </c>
       <c r="G8">
-        <v>26.65191141181159</v>
+        <v>26.65191141181164</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.848656962151376</v>
+        <v>4.848656962151443</v>
       </c>
       <c r="J8">
-        <v>42.73248353911028</v>
+        <v>42.73248353911029</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>28.66192445083666</v>
+        <v>28.66192445083669</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.000443863605229</v>
+        <v>8.000443863605215</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.238809013715687</v>
+        <v>3.238809013715798</v>
       </c>
       <c r="E9">
-        <v>4.647728375590887</v>
+        <v>4.64772837559082</v>
       </c>
       <c r="F9">
-        <v>41.10267347830116</v>
+        <v>41.10267347830092</v>
       </c>
       <c r="G9">
-        <v>31.68215378066109</v>
+        <v>31.68215378066087</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.248705145613912</v>
+        <v>4.248705145613743</v>
       </c>
       <c r="J9">
-        <v>49.91904863392727</v>
+        <v>49.91904863392719</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>33.50787330840939</v>
+        <v>33.50787330840933</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.664709129805168</v>
+        <v>8.664709129805154</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.682387465147199</v>
+        <v>3.682387465147087</v>
       </c>
       <c r="E10">
-        <v>4.303033654278509</v>
+        <v>4.303033654278543</v>
       </c>
       <c r="F10">
-        <v>45.88547658459203</v>
+        <v>45.88547658459197</v>
       </c>
       <c r="G10">
-        <v>35.4826480195577</v>
+        <v>35.48264801955764</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.811816411099726</v>
+        <v>3.811816411099796</v>
       </c>
       <c r="J10">
-        <v>54.83725316652674</v>
+        <v>54.83725316652662</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>36.83640220306467</v>
+        <v>36.83640220306462</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.987555517147172</v>
+        <v>8.9875555171472</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.890387604413382</v>
+        <v>3.89038760441339</v>
       </c>
       <c r="E11">
-        <v>4.145558811035153</v>
+        <v>4.145558811035049</v>
       </c>
       <c r="F11">
-        <v>48.08767523444737</v>
+        <v>48.08767523444743</v>
       </c>
       <c r="G11">
-        <v>37.23037704285576</v>
+        <v>37.2303770428558</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.613121342730637</v>
+        <v>3.613121342730532</v>
       </c>
       <c r="J11">
-        <v>57.01137540635104</v>
+        <v>57.01137540635115</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>38.31115627063519</v>
+        <v>38.31115627063526</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.1077147878767</v>
+        <v>9.107714787876734</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.970439358602361</v>
+        <v>3.970439358602559</v>
       </c>
       <c r="E12">
-        <v>4.085694536654961</v>
+        <v>4.085694536655128</v>
       </c>
       <c r="F12">
-        <v>48.92797903919958</v>
+        <v>48.92797903919971</v>
       </c>
       <c r="G12">
-        <v>37.89703790034103</v>
+        <v>37.89703790034115</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.537861072932426</v>
+        <v>3.5378610729325</v>
       </c>
       <c r="J12">
-        <v>57.82720168556686</v>
+        <v>57.82720168556683</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>38.86510239840047</v>
+        <v>38.86510239840041</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,22 +836,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.953134194714483</v>
+        <v>3.953134194714416</v>
       </c>
       <c r="E13">
         <v>4.098600103015999</v>
       </c>
       <c r="F13">
-        <v>48.74667144813137</v>
+        <v>48.74667144813131</v>
       </c>
       <c r="G13">
-        <v>37.75320505112384</v>
+        <v>37.75320505112375</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.554070332781841</v>
+        <v>3.5540703327819</v>
       </c>
       <c r="J13">
         <v>57.65180101166448</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>38.74597943231999</v>
+        <v>38.74597943232001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.997482533140937</v>
+        <v>8.997482533140936</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.89694510986589</v>
+        <v>3.896945109865819</v>
       </c>
       <c r="E14">
-        <v>4.140639248659076</v>
+        <v>4.14063924865901</v>
       </c>
       <c r="F14">
-        <v>48.15666216631136</v>
+        <v>48.15666216631118</v>
       </c>
       <c r="G14">
-        <v>37.28511238393376</v>
+        <v>37.28511238393357</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.606929954782252</v>
+        <v>3.606929954782249</v>
       </c>
       <c r="J14">
-        <v>57.07863291550521</v>
+        <v>57.07863291550509</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>38.35681255948442</v>
+        <v>38.35681255948435</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.945487221394357</v>
+        <v>8.945487221394371</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.862708611248432</v>
+        <v>3.862708611248451</v>
       </c>
       <c r="E15">
-        <v>4.166354817478847</v>
+        <v>4.166354817478814</v>
       </c>
       <c r="F15">
-        <v>47.79618472716996</v>
+        <v>47.79618472716994</v>
       </c>
       <c r="G15">
-        <v>36.99909508782279</v>
+        <v>36.9990950878228</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.639305737471043</v>
+        <v>3.639305737471049</v>
       </c>
       <c r="J15">
-        <v>56.72663310275693</v>
+        <v>56.72663310275689</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>38.11788807224017</v>
+        <v>38.11788807224015</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.643311968347337</v>
+        <v>8.643311968347319</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.668950614419997</v>
+        <v>3.668950614420195</v>
       </c>
       <c r="E16">
         <v>4.313300428522417</v>
       </c>
       <c r="F16">
-        <v>45.74229334039612</v>
+        <v>45.74229334039613</v>
       </c>
       <c r="G16">
         <v>35.3689772314825</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.82479923279449</v>
+        <v>3.824799232794396</v>
       </c>
       <c r="J16">
-        <v>54.69402779877648</v>
+        <v>54.69402779877643</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>36.73932338894353</v>
+        <v>36.73932338894349</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.454105768835378</v>
+        <v>8.454105768835314</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.551928254155023</v>
+        <v>3.551928254155098</v>
       </c>
       <c r="E17">
-        <v>4.403185373788587</v>
+        <v>4.403185373788555</v>
       </c>
       <c r="F17">
-        <v>44.49068012607901</v>
+        <v>44.49068012607918</v>
       </c>
       <c r="G17">
-        <v>34.37511212470714</v>
+        <v>34.37511212470728</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.938572940118181</v>
+        <v>3.938572940118121</v>
       </c>
       <c r="J17">
-        <v>53.43194714401324</v>
+        <v>53.43194714401334</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>35.88426758757959</v>
+        <v>35.88426758757968</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.343843786597253</v>
+        <v>8.343843786597251</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.48517658703679</v>
+        <v>3.485176587036798</v>
       </c>
       <c r="E18">
-        <v>4.454830929424401</v>
+        <v>4.454830929424334</v>
       </c>
       <c r="F18">
-        <v>43.77308444482948</v>
+        <v>43.77308444482953</v>
       </c>
       <c r="G18">
-        <v>33.80508495335883</v>
+        <v>33.80508495335888</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.004016722421631</v>
+        <v>4.00401672242157</v>
       </c>
       <c r="J18">
-        <v>52.6999681730066</v>
+        <v>52.69996817300665</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>35.38867014318055</v>
+        <v>35.38867014318063</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.311956463472598</v>
+        <v>8.31195646347256</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.462660752390471</v>
+        <v>3.462660752390422</v>
       </c>
       <c r="E19">
-        <v>4.472311738570067</v>
+        <v>4.47231173857</v>
       </c>
       <c r="F19">
-        <v>43.53044729836272</v>
+        <v>43.5304472983628</v>
       </c>
       <c r="G19">
-        <v>33.61230622137811</v>
+        <v>33.6123062213782</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.026177119751092</v>
+        <v>4.02617711975109</v>
       </c>
       <c r="J19">
-        <v>52.45104764566065</v>
+        <v>52.45104764566074</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>35.2201870159518</v>
+        <v>35.22018701595185</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.474395074135003</v>
+        <v>8.474395074134989</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.564325348576697</v>
+        <v>3.564325348576749</v>
       </c>
       <c r="E20">
-        <v>4.393623454513051</v>
+        <v>4.393623454513049</v>
       </c>
       <c r="F20">
-        <v>44.62366228658528</v>
+        <v>44.62366228658524</v>
       </c>
       <c r="G20">
-        <v>34.48072985574552</v>
+        <v>34.48072985574548</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.926461449152185</v>
+        <v>3.926461449152151</v>
       </c>
       <c r="J20">
-        <v>53.56691475904897</v>
+        <v>53.56691475904899</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.022342302997018</v>
+        <v>9.022342302996989</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.913410648416254</v>
+        <v>3.913410648416257</v>
       </c>
       <c r="E21">
         <v>4.12829882284499</v>
       </c>
       <c r="F21">
-        <v>48.32976468038866</v>
+        <v>48.32976468038868</v>
       </c>
       <c r="G21">
-        <v>37.4224513550824</v>
+        <v>37.42245135508243</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.591404232820229</v>
+        <v>3.5914042328202</v>
       </c>
       <c r="J21">
-        <v>57.24717409593444</v>
+        <v>57.24717409593447</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>38.47123215372889</v>
+        <v>38.47123215372893</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.368295177393062</v>
+        <v>9.368295177393005</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.149320500084823</v>
+        <v>4.149320500084768</v>
       </c>
       <c r="E22">
-        <v>3.953461172612389</v>
+        <v>3.953461172612323</v>
       </c>
       <c r="F22">
-        <v>50.79090345224721</v>
+        <v>50.79090345224741</v>
       </c>
       <c r="G22">
-        <v>39.3746833537278</v>
+        <v>39.37468335372799</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.372354564103651</v>
+        <v>3.37235456410366</v>
       </c>
       <c r="J22">
-        <v>59.60997032786415</v>
+        <v>59.60997032786428</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40.07668226225243</v>
+        <v>40.07668226225254</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.18473313325952</v>
+        <v>9.184733133259533</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.022542441753322</v>
+        <v>4.022542441753134</v>
       </c>
       <c r="E23">
-        <v>4.046957462889042</v>
+        <v>4.04695746288904</v>
       </c>
       <c r="F23">
-        <v>49.47271399441026</v>
+        <v>49.47271399441027</v>
       </c>
       <c r="G23">
-        <v>38.32915450030154</v>
+        <v>38.32915450030152</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.489263109205724</v>
+        <v>3.489263109205808</v>
       </c>
       <c r="J23">
-        <v>58.35214485267463</v>
+        <v>58.35214485267466</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.465226910556854</v>
+        <v>8.465226910556867</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.558719011924651</v>
+        <v>3.558719011924706</v>
       </c>
       <c r="E24">
-        <v>4.397946483283538</v>
+        <v>4.397946483283537</v>
       </c>
       <c r="F24">
-        <v>44.56353508842719</v>
+        <v>44.5635350884272</v>
       </c>
       <c r="G24">
         <v>34.43297599776712</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.931936946154659</v>
+        <v>3.931936946154686</v>
       </c>
       <c r="J24">
-        <v>53.50591592696319</v>
+        <v>53.50591592696327</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>35.93436210434308</v>
+        <v>35.93436210434312</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.77097052224459</v>
+        <v>7.77097052224462</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.078824830999413</v>
+        <v>3.078824830999418</v>
       </c>
       <c r="E25">
         <v>4.774856103819348</v>
       </c>
       <c r="F25">
-        <v>39.35147913247511</v>
+        <v>39.3514791324752</v>
       </c>
       <c r="G25">
-        <v>30.28817423519469</v>
+        <v>30.28817423519473</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.410010162893119</v>
+        <v>4.410010162893215</v>
       </c>
       <c r="J25">
-        <v>48.04284628553633</v>
+        <v>48.0428462855363</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>32.24076030096116</v>
+        <v>32.24076030096114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.25556892056994</v>
+        <v>7.255535971649675</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.732291956406918</v>
+        <v>2.726761234275474</v>
       </c>
       <c r="E2">
-        <v>5.05501515329877</v>
+        <v>5.052724998830886</v>
       </c>
       <c r="F2">
-        <v>35.58496268777996</v>
+        <v>35.54852254946827</v>
       </c>
       <c r="G2">
-        <v>27.24190944864613</v>
+        <v>27.26698430488207</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.27653364684069</v>
       </c>
       <c r="I2">
-        <v>4.764963402661981</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>43.77177998672819</v>
+        <v>4.763618429964065</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>43.76815704481737</v>
       </c>
       <c r="L2">
-        <v>29.36147933698776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.36004670760759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.894105344188923</v>
+        <v>6.894084707983807</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.497748709822473</v>
+        <v>2.492863329426074</v>
       </c>
       <c r="E3">
-        <v>5.248184301329215</v>
+        <v>5.246383543132484</v>
       </c>
       <c r="F3">
-        <v>33.26290068759914</v>
+        <v>33.22939120295509</v>
       </c>
       <c r="G3">
-        <v>25.54287601218504</v>
+        <v>25.21802077018373</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25.57552796869995</v>
       </c>
       <c r="I3">
-        <v>5.008857362834472</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>40.70461897788793</v>
+        <v>5.007708848222165</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>40.70174782441789</v>
       </c>
       <c r="L3">
-        <v>27.29814531886752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.29713526259018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.666726236330099</v>
+        <v>6.666711853134891</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.352860669601259</v>
+        <v>2.348382656316763</v>
       </c>
       <c r="E4">
-        <v>5.368882756016669</v>
+        <v>5.367387860991168</v>
       </c>
       <c r="F4">
-        <v>31.85077283677506</v>
+        <v>31.81907138653205</v>
       </c>
       <c r="G4">
-        <v>24.5194576779728</v>
+        <v>24.00004962818256</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.55094025243067</v>
       </c>
       <c r="I4">
-        <v>5.160748196115515</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>38.73150699227465</v>
+        <v>5.159720771339651</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>38.72907584312851</v>
       </c>
       <c r="L4">
-        <v>25.97267883013482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>25.97191091869592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.572808674581944</v>
+        <v>6.572796548437303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.293466635927391</v>
+        <v>2.28915791974203</v>
       </c>
       <c r="E5">
-        <v>5.418655519262784</v>
+        <v>5.417286774013305</v>
       </c>
       <c r="F5">
-        <v>31.27875734000038</v>
+        <v>31.24779682905554</v>
       </c>
       <c r="G5">
-        <v>24.10737150907006</v>
+        <v>23.50312529701598</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.13838957621476</v>
       </c>
       <c r="I5">
-        <v>5.223252246614559</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>37.90424228038683</v>
+        <v>5.222274423992405</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>37.90198653444293</v>
       </c>
       <c r="L5">
-        <v>25.41738666116874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.41671406606382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.557141330645035</v>
+        <v>6.557129562677414</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.283579625520967</v>
+        <v>2.279299233210598</v>
       </c>
       <c r="E6">
-        <v>5.426957388722156</v>
+        <v>5.425609685932633</v>
       </c>
       <c r="F6">
-        <v>31.18398716457663</v>
+        <v>31.15314998349876</v>
       </c>
       <c r="G6">
-        <v>24.03924753885617</v>
+        <v>23.4205773563542</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.07018924632168</v>
       </c>
       <c r="I6">
-        <v>5.233669638144019</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>37.76545760157774</v>
+        <v>5.232700071068332</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>37.7632307864592</v>
       </c>
       <c r="L6">
-        <v>25.32425412246389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.32359717810482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.66546456747971</v>
+        <v>6.665450215857573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.352061241476335</v>
+        <v>2.347585497450981</v>
       </c>
       <c r="E7">
-        <v>5.369551554921292</v>
+        <v>5.368058354893346</v>
       </c>
       <c r="F7">
-        <v>31.84304432517991</v>
+        <v>31.81135284850367</v>
       </c>
       <c r="G7">
-        <v>24.51387993319267</v>
+        <v>23.99335028149759</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.5453561924074</v>
       </c>
       <c r="I7">
-        <v>5.161588599408288</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>38.72044492301146</v>
+        <v>5.160561842376968</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>38.71801615333996</v>
       </c>
       <c r="L7">
-        <v>25.96525184772717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>25.96448523414831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.132123631548932</v>
+        <v>7.132095224172187</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.651519252612207</v>
+        <v>2.646209052477103</v>
       </c>
       <c r="E8">
-        <v>5.121224491246639</v>
+        <v>5.119102065505993</v>
       </c>
       <c r="F8">
-        <v>34.78141496925209</v>
+        <v>34.74598492632693</v>
       </c>
       <c r="G8">
-        <v>26.65191141181164</v>
+        <v>26.54767855652911</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>26.68584790619618</v>
       </c>
       <c r="I8">
-        <v>4.848656962151443</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>42.73248353911029</v>
+        <v>4.847379725461293</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>42.72912528682033</v>
       </c>
       <c r="L8">
-        <v>28.66192445083669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>28.66064176651661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.000443863605215</v>
+        <v>8.000375369217249</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.238809013715798</v>
+        <v>3.231924338478102</v>
       </c>
       <c r="E9">
-        <v>4.64772837559082</v>
+        <v>4.644406603958391</v>
       </c>
       <c r="F9">
-        <v>41.10267347830092</v>
+        <v>41.05897659580327</v>
       </c>
       <c r="G9">
-        <v>31.68215378066087</v>
+        <v>31.72243931852993</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.46330332431283</v>
       </c>
       <c r="I9">
-        <v>4.248705145613743</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>49.91904863392719</v>
+        <v>4.246932180433587</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>49.91361261899835</v>
       </c>
       <c r="L9">
-        <v>33.50787330840933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>33.50538614784202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.664709129805154</v>
+        <v>8.664549613664004</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.682387465147087</v>
+        <v>3.67433731256773</v>
       </c>
       <c r="E10">
-        <v>4.303033654278543</v>
+        <v>4.298838789619066</v>
       </c>
       <c r="F10">
-        <v>45.88547658459197</v>
+        <v>45.83610370490729</v>
       </c>
       <c r="G10">
-        <v>35.48264801955764</v>
+        <v>35.52723371862842</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>35.14308478469729</v>
       </c>
       <c r="I10">
-        <v>3.811816411099796</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>54.83725316652662</v>
+        <v>3.80966056376583</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>54.82998384453553</v>
       </c>
       <c r="L10">
-        <v>36.83640220306462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>36.83281230543987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.9875555171472</v>
+        <v>8.987369422335526</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.89038760441339</v>
+        <v>3.881790708099316</v>
       </c>
       <c r="E11">
-        <v>4.145558811035049</v>
+        <v>4.140964995175963</v>
       </c>
       <c r="F11">
-        <v>48.08767523444743</v>
+        <v>48.03556355735496</v>
       </c>
       <c r="G11">
-        <v>37.2303770428558</v>
+        <v>37.27685425887269</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>36.84375472156801</v>
       </c>
       <c r="I11">
-        <v>3.613121342730532</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>57.01137540635115</v>
+        <v>3.610781706301434</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>57.00315644222682</v>
       </c>
       <c r="L11">
-        <v>38.31115627063526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>38.30698457177431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.107714787876734</v>
+        <v>9.107517875063593</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.970439358602559</v>
+        <v>3.961631310087761</v>
       </c>
       <c r="E12">
-        <v>4.085694536655128</v>
+        <v>4.080949040509173</v>
       </c>
       <c r="F12">
-        <v>48.92797903919971</v>
+        <v>48.87479710299423</v>
       </c>
       <c r="G12">
-        <v>37.89703790034115</v>
+        <v>37.94421848919774</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>37.4936359740767</v>
       </c>
       <c r="I12">
-        <v>3.5378610729325</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>57.82720168556683</v>
+        <v>3.53544975517928</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>57.81860059273549</v>
       </c>
       <c r="L12">
-        <v>38.86510239840041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>38.86069488915312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.081927974549437</v>
+        <v>9.081733428661201</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.953134194714416</v>
+        <v>3.944371838374213</v>
       </c>
       <c r="E13">
-        <v>4.098600103015999</v>
+        <v>4.093887307115966</v>
       </c>
       <c r="F13">
-        <v>48.74667144813131</v>
+        <v>48.69372169482268</v>
       </c>
       <c r="G13">
-        <v>37.75320505112375</v>
+        <v>37.8002348039084</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>37.35337196534241</v>
       </c>
       <c r="I13">
-        <v>3.5540703327819</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>57.65180101166448</v>
+        <v>3.551674559730961</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>57.64328333462796</v>
       </c>
       <c r="L13">
-        <v>38.74597943232001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>38.74162347654548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.997482533140936</v>
+        <v>8.997295564685771</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.896945109865819</v>
+        <v>3.888330936332732</v>
       </c>
       <c r="E14">
-        <v>4.14063924865901</v>
+        <v>4.136032968339735</v>
       </c>
       <c r="F14">
-        <v>48.15666216631118</v>
+        <v>48.10446317658511</v>
       </c>
       <c r="G14">
-        <v>37.28511238393357</v>
+        <v>37.3316477515813</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>36.89708922024316</v>
       </c>
       <c r="I14">
-        <v>3.606929954782249</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>57.07863291550509</v>
+        <v>3.604584467854735</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>57.07038300575717</v>
       </c>
       <c r="L14">
-        <v>38.35681255948435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>38.35262179859892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.945487221394371</v>
+        <v>8.945304789798421</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.862708611248451</v>
+        <v>3.85418460731606</v>
       </c>
       <c r="E15">
-        <v>4.166354817478814</v>
+        <v>4.161813690677112</v>
       </c>
       <c r="F15">
-        <v>47.79618472716994</v>
+        <v>47.74444090877355</v>
       </c>
       <c r="G15">
-        <v>36.9990950878228</v>
+        <v>37.04532581715765</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>36.6184388602944</v>
       </c>
       <c r="I15">
-        <v>3.639305737471049</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>56.72663310275689</v>
+        <v>3.636990755385077</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>56.71854406644823</v>
       </c>
       <c r="L15">
-        <v>38.11788807224015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>38.11379633894902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.643311968347319</v>
+        <v>8.643154095002577</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.668950614420195</v>
+        <v>3.660935723934136</v>
       </c>
       <c r="E16">
-        <v>4.313300428522417</v>
+        <v>4.309131571845684</v>
       </c>
       <c r="F16">
-        <v>45.74229334039613</v>
+        <v>45.69309546756936</v>
       </c>
       <c r="G16">
-        <v>35.3689772314825</v>
+        <v>35.41343773793223</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>35.03263969617041</v>
       </c>
       <c r="I16">
-        <v>3.824799232794396</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>54.69402779877643</v>
+        <v>3.822655148835313</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>54.68681775068575</v>
       </c>
       <c r="L16">
-        <v>36.73932338894349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>36.73576959070857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.454105768835314</v>
+        <v>8.453961831524955</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.551928254155098</v>
+        <v>3.544220378102878</v>
       </c>
       <c r="E17">
-        <v>4.403185373788555</v>
+        <v>4.399244205960801</v>
       </c>
       <c r="F17">
-        <v>44.49068012607918</v>
+        <v>44.44299748174145</v>
       </c>
       <c r="G17">
-        <v>34.37511212470728</v>
+        <v>34.41846794630568</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>34.06790855666276</v>
       </c>
       <c r="I17">
-        <v>3.938572940118121</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>53.43194714401334</v>
+        <v>3.936530811440156</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>53.42524308710598</v>
       </c>
       <c r="L17">
-        <v>35.88426758757968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>35.88102083209193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.343843786597251</v>
+        <v>8.343707504487964</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.485176587036798</v>
+        <v>3.477643868131238</v>
       </c>
       <c r="E18">
-        <v>4.454830929424334</v>
+        <v>4.451020579074064</v>
       </c>
       <c r="F18">
-        <v>43.77308444482953</v>
+        <v>43.72625936832614</v>
       </c>
       <c r="G18">
-        <v>33.80508495335888</v>
+        <v>33.8477995811169</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>33.51538244148317</v>
       </c>
       <c r="I18">
-        <v>4.00401672242157</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>52.69996817300665</v>
+        <v>4.002032384942655</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>52.69354470576305</v>
       </c>
       <c r="L18">
-        <v>35.38867014318063</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>35.38559274508768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.31195646347256</v>
+        <v>8.311868397788677</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.462660752390422</v>
+        <v>3.455187137391298</v>
       </c>
       <c r="E19">
-        <v>4.47231173857</v>
+        <v>4.468545665948088</v>
       </c>
       <c r="F19">
-        <v>43.5304472983628</v>
+        <v>43.48391045084857</v>
       </c>
       <c r="G19">
-        <v>33.6123062213782</v>
+        <v>33.65480284256747</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>33.32865987633751</v>
       </c>
       <c r="I19">
-        <v>4.02617711975109</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>52.45104764566074</v>
+        <v>4.024212220640014</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>52.4447175371162</v>
       </c>
       <c r="L19">
-        <v>35.22018701595185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>35.2171658154204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.474395074134989</v>
+        <v>8.474249691743676</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.564325348576749</v>
+        <v>3.556584949068201</v>
       </c>
       <c r="E20">
-        <v>4.393623454513049</v>
+        <v>4.389658065988013</v>
       </c>
       <c r="F20">
-        <v>44.62366228658524</v>
+        <v>44.57581985306922</v>
       </c>
       <c r="G20">
-        <v>34.48072985574548</v>
+        <v>34.52420389576582</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>34.17034859631379</v>
       </c>
       <c r="I20">
-        <v>3.926461449152151</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>53.56691475904899</v>
+        <v>3.92440855948744</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>53.56015795593243</v>
       </c>
       <c r="L20">
-        <v>35.97567464927695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>35.9723959830544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.022342302996989</v>
+        <v>9.022153131067917</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.913410648416257</v>
+        <v>3.904753078285535</v>
       </c>
       <c r="E21">
-        <v>4.12829882284499</v>
+        <v>4.123661275857984</v>
       </c>
       <c r="F21">
-        <v>48.32976468038868</v>
+        <v>48.27734617568333</v>
       </c>
       <c r="G21">
-        <v>37.42245135508243</v>
+        <v>37.46913232216704</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>37.03093175858185</v>
       </c>
       <c r="I21">
-        <v>3.5914042328202</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>57.24717409593447</v>
+        <v>3.589044039159019</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>57.23884620469799</v>
       </c>
       <c r="L21">
-        <v>38.47123215372893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>38.46699333017878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.368295177393005</v>
+        <v>9.368072860961888</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.149320500084768</v>
+        <v>4.140038261586381</v>
       </c>
       <c r="E22">
-        <v>3.953461172612323</v>
+        <v>3.948380590256618</v>
       </c>
       <c r="F22">
-        <v>50.79090345224741</v>
+        <v>50.73529310244587</v>
       </c>
       <c r="G22">
-        <v>39.37468335372799</v>
+        <v>39.42338205943503</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>38.93616437816608</v>
       </c>
       <c r="I22">
-        <v>3.37235456410366</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>59.60997032786428</v>
+        <v>3.369780833444541</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>59.60047998677138</v>
       </c>
       <c r="L22">
-        <v>40.07668226225254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>40.07172263053159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.184733133259533</v>
+        <v>9.184528998533985</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.022542441753134</v>
+        <v>4.013596647127509</v>
       </c>
       <c r="E23">
-        <v>4.04695746288904</v>
+        <v>4.042113811140587</v>
       </c>
       <c r="F23">
-        <v>49.47271399441027</v>
+        <v>49.41883016480748</v>
       </c>
       <c r="G23">
-        <v>38.32915450030152</v>
+        <v>38.37678509081937</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>37.91519583295247</v>
       </c>
       <c r="I23">
-        <v>3.489263109205808</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>58.35214485267466</v>
+        <v>3.486804818080417</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>58.34328986986442</v>
       </c>
       <c r="L23">
-        <v>39.22170172801918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>39.21713704788836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.465226910556867</v>
+        <v>8.465082182585217</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.558719011924706</v>
+        <v>3.550993320352144</v>
       </c>
       <c r="E24">
-        <v>4.397946483283537</v>
+        <v>4.393992045171381</v>
       </c>
       <c r="F24">
-        <v>44.5635350884272</v>
+        <v>44.51576493708166</v>
       </c>
       <c r="G24">
-        <v>34.43297599776712</v>
+        <v>34.47639660997732</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>34.12402902490662</v>
       </c>
       <c r="I24">
-        <v>3.931936946154686</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>53.50591592696327</v>
+        <v>3.929888924050529</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>53.4991830021109</v>
       </c>
       <c r="L24">
-        <v>35.93436210434312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>35.93109788700374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.77097052224462</v>
+        <v>7.770914563400115</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.078824830999418</v>
+        <v>3.07236362259916</v>
       </c>
       <c r="E25">
-        <v>4.774856103819348</v>
+        <v>4.771856318019577</v>
       </c>
       <c r="F25">
-        <v>39.3514791324752</v>
+        <v>39.30978729519556</v>
       </c>
       <c r="G25">
-        <v>30.28817423519473</v>
+        <v>30.32683666713418</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.12137980578529</v>
       </c>
       <c r="I25">
-        <v>4.410010162893215</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>48.0428462855363</v>
+        <v>4.408373145682438</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>48.03801301922114</v>
       </c>
       <c r="L25">
-        <v>32.24076030096114</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>32.23862841566162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.255535971649675</v>
+        <v>20.16481914277839</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.726761234275474</v>
+        <v>9.441534502731688</v>
       </c>
       <c r="E2">
-        <v>5.052724998830886</v>
+        <v>16.83316826345644</v>
       </c>
       <c r="F2">
-        <v>35.54852254946827</v>
+        <v>37.52641097942148</v>
       </c>
       <c r="G2">
-        <v>27.26698430488207</v>
+        <v>2.083077410980814</v>
       </c>
       <c r="H2">
-        <v>27.27653364684069</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.763618429964065</v>
+        <v>10.07894715314425</v>
       </c>
       <c r="K2">
-        <v>43.76815704481737</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.24481405400451</v>
       </c>
       <c r="M2">
-        <v>29.36004670760759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.00831864663793</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.91909682063524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.894084707983807</v>
+        <v>19.02613535558438</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.492863329426074</v>
+        <v>8.836977900836656</v>
       </c>
       <c r="E3">
-        <v>5.246383543132484</v>
+        <v>15.94830376670343</v>
       </c>
       <c r="F3">
-        <v>33.22939120295509</v>
+        <v>36.42388972870302</v>
       </c>
       <c r="G3">
-        <v>25.21802077018373</v>
+        <v>2.097551172617059</v>
       </c>
       <c r="H3">
-        <v>25.57552796869995</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.007708848222165</v>
+        <v>9.74523041379773</v>
       </c>
       <c r="K3">
-        <v>40.70174782441789</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.34803770197406</v>
       </c>
       <c r="M3">
-        <v>27.29713526259018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.13515639413833</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.80960540970026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.666711853134891</v>
+        <v>18.30500893421597</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.348382656316763</v>
+        <v>8.451427327573818</v>
       </c>
       <c r="E4">
-        <v>5.367387860991168</v>
+        <v>15.38569372693779</v>
       </c>
       <c r="F4">
-        <v>31.81907138653205</v>
+        <v>35.79356015629628</v>
       </c>
       <c r="G4">
-        <v>24.00004962818256</v>
+        <v>2.106595994036168</v>
       </c>
       <c r="H4">
-        <v>24.55094025243067</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.159720771339651</v>
+        <v>9.536395839028049</v>
       </c>
       <c r="K4">
-        <v>38.72907584312851</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.84522735772648</v>
       </c>
       <c r="M4">
-        <v>25.97191091869592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.58533837155768</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.15942114741474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.572796548437303</v>
+        <v>18.00581614478915</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.28915791974203</v>
+        <v>8.290627059054302</v>
       </c>
       <c r="E5">
-        <v>5.417286774013305</v>
+        <v>15.15159099539141</v>
       </c>
       <c r="F5">
-        <v>31.24779682905554</v>
+        <v>35.54811379515731</v>
       </c>
       <c r="G5">
-        <v>23.50312529701598</v>
+        <v>2.110326420689865</v>
       </c>
       <c r="H5">
-        <v>24.13838957621476</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.222274423992405</v>
+        <v>9.450331133961654</v>
       </c>
       <c r="K5">
-        <v>37.90198653444293</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.63589310517801</v>
       </c>
       <c r="M5">
-        <v>25.41671406606382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.35801972556191</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.9021988879616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.557129562677414</v>
+        <v>17.95582072294057</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.279299233210598</v>
+        <v>8.263701910753062</v>
       </c>
       <c r="E6">
-        <v>5.425609685932633</v>
+        <v>15.11242774950637</v>
       </c>
       <c r="F6">
-        <v>31.15314998349876</v>
+        <v>35.50803811053178</v>
       </c>
       <c r="G6">
-        <v>23.4205773563542</v>
+        <v>2.110948682257396</v>
       </c>
       <c r="H6">
-        <v>24.07018924632168</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.232700071068332</v>
+        <v>9.435982974175829</v>
       </c>
       <c r="K6">
-        <v>37.7632307864592</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.60086854249898</v>
       </c>
       <c r="M6">
-        <v>25.32359717810482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.32008282756935</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.85995247313006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.665450215857573</v>
+        <v>18.30099517752849</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.347585497450981</v>
+        <v>8.449273725429467</v>
       </c>
       <c r="E7">
-        <v>5.368058354893346</v>
+        <v>15.38255605657879</v>
       </c>
       <c r="F7">
-        <v>31.81135284850367</v>
+        <v>35.79020415938079</v>
       </c>
       <c r="G7">
-        <v>23.99335028149759</v>
+        <v>2.106646117215769</v>
       </c>
       <c r="H7">
-        <v>24.5453561924074</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.160561842376968</v>
+        <v>9.535238996654419</v>
       </c>
       <c r="K7">
-        <v>38.71801615333996</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.84242202689286</v>
       </c>
       <c r="M7">
-        <v>25.96448523414831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.5822856095757</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.15592093417615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.132095224172187</v>
+        <v>19.77685747616589</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.646209052477103</v>
+        <v>9.236008357730718</v>
       </c>
       <c r="E8">
-        <v>5.119102065505993</v>
+        <v>16.53207085558114</v>
       </c>
       <c r="F8">
-        <v>34.74598492632693</v>
+        <v>37.13640144287386</v>
       </c>
       <c r="G8">
-        <v>26.54767855652911</v>
+        <v>2.088038298269936</v>
       </c>
       <c r="H8">
-        <v>26.68584790619618</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.847379725461293</v>
+        <v>9.964708986995294</v>
       </c>
       <c r="K8">
-        <v>42.72912528682033</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.9323542617199</v>
       </c>
       <c r="M8">
-        <v>28.66064176651661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.71018573402079</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.53004851727588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.000375369217249</v>
+        <v>22.49160172727191</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.231924338478102</v>
+        <v>10.66967577286171</v>
       </c>
       <c r="E9">
-        <v>4.644406603958391</v>
+        <v>18.63458451820971</v>
       </c>
       <c r="F9">
-        <v>41.05897659580327</v>
+        <v>40.16062885282295</v>
       </c>
       <c r="G9">
-        <v>31.72243931852993</v>
+        <v>2.052551010118366</v>
       </c>
       <c r="H9">
-        <v>31.46330332431283</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.246932180433587</v>
+        <v>10.77530705674101</v>
       </c>
       <c r="K9">
-        <v>49.91361261899835</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.08185650149119</v>
       </c>
       <c r="M9">
-        <v>33.50538614784202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.80822275325748</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.47636017720223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.664549613664004</v>
+        <v>24.37475519579148</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.67433731256773</v>
+        <v>11.66511902859957</v>
       </c>
       <c r="E10">
-        <v>4.298838789619066</v>
+        <v>20.09224514752137</v>
       </c>
       <c r="F10">
-        <v>45.83610370490729</v>
+        <v>42.64030273587723</v>
       </c>
       <c r="G10">
-        <v>35.52723371862842</v>
+        <v>2.026686365708583</v>
       </c>
       <c r="H10">
-        <v>35.14308478469729</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.80966056376583</v>
+        <v>11.35228321079281</v>
       </c>
       <c r="K10">
-        <v>54.82998384453553</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.53474485922962</v>
       </c>
       <c r="M10">
-        <v>36.83281230543987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20.57442724268726</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.80693863792639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.987369422335526</v>
+        <v>25.20817882115501</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.881790708099316</v>
+        <v>12.10797726530519</v>
       </c>
       <c r="E11">
-        <v>4.140964995175963</v>
+        <v>20.73867160492005</v>
       </c>
       <c r="F11">
-        <v>48.03556355735496</v>
+        <v>43.83123793950232</v>
       </c>
       <c r="G11">
-        <v>37.27685425887269</v>
+        <v>2.014855802661105</v>
       </c>
       <c r="H11">
-        <v>36.84375472156801</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.610781706301434</v>
+        <v>11.61127450243522</v>
       </c>
       <c r="K11">
-        <v>57.00315644222682</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.17097435595489</v>
       </c>
       <c r="M11">
-        <v>38.30698457177431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.36899323832375</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.90803070826863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.107517875063593</v>
+        <v>25.52218571260349</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.961631310087761</v>
+        <v>12.27451329585443</v>
       </c>
       <c r="E12">
-        <v>4.080949040509173</v>
+        <v>20.98131928623027</v>
       </c>
       <c r="F12">
-        <v>48.87479710299423</v>
+        <v>44.29202683496573</v>
       </c>
       <c r="G12">
-        <v>37.94421848919774</v>
+        <v>2.010355548347333</v>
       </c>
       <c r="H12">
-        <v>37.4936359740767</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.53544975517928</v>
+        <v>11.70892304395532</v>
       </c>
       <c r="K12">
-        <v>57.81860059273549</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>17.40861297306725</v>
       </c>
       <c r="M12">
-        <v>38.86069488915312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.6656270736933</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>37.33146447330508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.081733428661201</v>
+        <v>25.45344904680667</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.944371838374213</v>
+        <v>12.23869369274012</v>
       </c>
       <c r="E13">
-        <v>4.093887307115966</v>
+        <v>20.9291510872006</v>
       </c>
       <c r="F13">
-        <v>48.69372169482268</v>
+        <v>44.1923371746136</v>
       </c>
       <c r="G13">
-        <v>37.8002348039084</v>
+        <v>2.011325856635788</v>
       </c>
       <c r="H13">
-        <v>37.35337196534241</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.551674559730961</v>
+        <v>11.68791013648987</v>
       </c>
       <c r="K13">
-        <v>57.64328333462796</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>17.35757480870941</v>
       </c>
       <c r="M13">
-        <v>38.74162347654548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.60192530743309</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>37.23997093744159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.997295564685771</v>
+        <v>25.23394414240741</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.888330936332732</v>
+        <v>12.12169988609453</v>
       </c>
       <c r="E14">
-        <v>4.136032968339735</v>
+        <v>20.7586755392627</v>
       </c>
       <c r="F14">
-        <v>48.10446317658511</v>
+        <v>43.86894567182811</v>
       </c>
       <c r="G14">
-        <v>37.3316477515813</v>
+        <v>2.014486040353958</v>
       </c>
       <c r="H14">
-        <v>36.89708922024316</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.604584467854735</v>
+        <v>11.61931611524026</v>
       </c>
       <c r="K14">
-        <v>57.07038300575717</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>17.19058925645379</v>
       </c>
       <c r="M14">
-        <v>38.35262179859892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.3934807421755</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.94273301179019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.945304789798421</v>
+        <v>25.09908241217053</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.85418460731606</v>
+        <v>12.04989505609985</v>
       </c>
       <c r="E15">
-        <v>4.161813690677112</v>
+        <v>20.65398448553079</v>
       </c>
       <c r="F15">
-        <v>47.74444090877355</v>
+        <v>43.67216231624101</v>
       </c>
       <c r="G15">
-        <v>37.04532581715765</v>
+        <v>2.016418744124968</v>
       </c>
       <c r="H15">
-        <v>36.6184388602944</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.636990755385077</v>
+        <v>11.57724752228904</v>
       </c>
       <c r="K15">
-        <v>56.71854406644823</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>17.08788617428019</v>
       </c>
       <c r="M15">
-        <v>38.11379633894902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.26525878086629</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.76153023998861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.643154095002577</v>
+        <v>24.31983340003887</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.660935723934136</v>
+        <v>11.63599831074494</v>
       </c>
       <c r="E16">
-        <v>4.309131571845684</v>
+        <v>20.04968463111035</v>
       </c>
       <c r="F16">
-        <v>45.69309546756936</v>
+        <v>42.56379888880979</v>
       </c>
       <c r="G16">
-        <v>35.41343773793223</v>
+        <v>2.027457324640894</v>
       </c>
       <c r="H16">
-        <v>35.03263969617041</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.822655148835313</v>
+        <v>11.33529326314586</v>
       </c>
       <c r="K16">
-        <v>54.68681775068575</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>16.49269041533348</v>
       </c>
       <c r="M16">
-        <v>36.73576959070857</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.5218877602319</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.73584905649573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.453961831524955</v>
+        <v>23.83592938119773</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.544220378102878</v>
+        <v>11.37970665626553</v>
       </c>
       <c r="E17">
-        <v>4.399244205960801</v>
+        <v>19.67485829261445</v>
       </c>
       <c r="F17">
-        <v>44.44299748174145</v>
+        <v>41.90044940937089</v>
       </c>
       <c r="G17">
-        <v>34.41846794630568</v>
+        <v>2.034205352829923</v>
       </c>
       <c r="H17">
-        <v>34.06790855666276</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.936530811440156</v>
+        <v>11.1860157626735</v>
       </c>
       <c r="K17">
-        <v>53.42524308710598</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>16.12140674377992</v>
       </c>
       <c r="M17">
-        <v>35.88102083209193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.05793776074304</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.11746594088861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.343707504487964</v>
+        <v>23.55540025551481</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.477643868131238</v>
+        <v>11.23133663229666</v>
       </c>
       <c r="E18">
-        <v>4.451020579074064</v>
+        <v>19.45767973745156</v>
       </c>
       <c r="F18">
-        <v>43.72625936832614</v>
+        <v>41.52477491632515</v>
       </c>
       <c r="G18">
-        <v>33.8477995811169</v>
+        <v>2.038081317662109</v>
       </c>
       <c r="H18">
-        <v>33.51538244148317</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.002032384942655</v>
+        <v>11.09982194902654</v>
       </c>
       <c r="K18">
-        <v>52.69354470576305</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.90551166325403</v>
       </c>
       <c r="M18">
-        <v>35.38559274508768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19.78808041491803</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.76559243462147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.311868397788677</v>
+        <v>23.46003632899782</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.455187137391298</v>
+        <v>11.18092923286521</v>
       </c>
       <c r="E19">
-        <v>4.468545665948088</v>
+        <v>19.38386727167006</v>
       </c>
       <c r="F19">
-        <v>43.48391045084857</v>
+        <v>41.39856556729713</v>
       </c>
       <c r="G19">
-        <v>33.65480284256747</v>
+        <v>2.039393043121808</v>
       </c>
       <c r="H19">
-        <v>33.32865987633751</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.024212220640014</v>
+        <v>11.07057912776676</v>
       </c>
       <c r="K19">
-        <v>52.4447175371162</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.83200358528015</v>
       </c>
       <c r="M19">
-        <v>35.2171658154204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19.69618646732003</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.64709244180667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.474249691743676</v>
+        <v>23.88766859512582</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.556584949068201</v>
+        <v>11.40708669286933</v>
       </c>
       <c r="E20">
-        <v>4.389658065988013</v>
+        <v>19.7149219398043</v>
       </c>
       <c r="F20">
-        <v>44.57581985306922</v>
+        <v>41.97045204951691</v>
       </c>
       <c r="G20">
-        <v>34.52420389576582</v>
+        <v>2.033487638128006</v>
       </c>
       <c r="H20">
-        <v>34.17034859631379</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.92440855948744</v>
+        <v>11.20194065590299</v>
       </c>
       <c r="K20">
-        <v>53.56015795593243</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.1611711876552</v>
       </c>
       <c r="M20">
-        <v>35.9723959830544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.10763500504703</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.18289647904111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.022153131067917</v>
+        <v>25.29850283112717</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.904753078285535</v>
+        <v>12.15609298967292</v>
       </c>
       <c r="E21">
-        <v>4.123661275857984</v>
+        <v>20.80880401787239</v>
       </c>
       <c r="F21">
-        <v>48.27734617568333</v>
+        <v>43.96366033765899</v>
       </c>
       <c r="G21">
-        <v>37.46913232216704</v>
+        <v>2.013558465441274</v>
       </c>
       <c r="H21">
-        <v>37.03093175858185</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.589044039159019</v>
+        <v>11.63947466710905</v>
       </c>
       <c r="K21">
-        <v>57.23884620469799</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.2397238753114</v>
       </c>
       <c r="M21">
-        <v>38.46699333017878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.45481863945213</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>37.02985758853078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.368072860961888</v>
+        <v>26.26838770416143</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.140038261586381</v>
+        <v>12.63899040615186</v>
       </c>
       <c r="E22">
-        <v>3.948380590256618</v>
+        <v>21.51141834575372</v>
       </c>
       <c r="F22">
-        <v>50.73529310244587</v>
+        <v>45.32401632976479</v>
       </c>
       <c r="G22">
-        <v>39.42338205943503</v>
+        <v>2.000408799970328</v>
       </c>
       <c r="H22">
-        <v>38.93616437816608</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.369780833444541</v>
+        <v>11.923002061465</v>
       </c>
       <c r="K22">
-        <v>59.60047998677138</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.92561222808798</v>
       </c>
       <c r="M22">
-        <v>40.07172263053159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.31068236603561</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>38.27511534648232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.184528998533985</v>
+        <v>25.74237335217372</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.013596647127509</v>
+        <v>12.38176061490087</v>
       </c>
       <c r="E23">
-        <v>4.042113811140587</v>
+        <v>21.13744133438693</v>
       </c>
       <c r="F23">
-        <v>49.41883016480748</v>
+        <v>44.59238324724686</v>
       </c>
       <c r="G23">
-        <v>38.37678509081937</v>
+        <v>2.007442610310516</v>
       </c>
       <c r="H23">
-        <v>37.91519583295247</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.486804818080417</v>
+        <v>11.77186801557994</v>
       </c>
       <c r="K23">
-        <v>58.34328986986442</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.5611812460275</v>
       </c>
       <c r="M23">
-        <v>39.21713704788836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.85602757775521</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.60675655182525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.465082182585217</v>
+        <v>23.86428455328747</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.550993320352144</v>
+        <v>11.39471138896453</v>
       </c>
       <c r="E24">
-        <v>4.393992045171381</v>
+        <v>19.69681443439542</v>
       </c>
       <c r="F24">
-        <v>44.51576493708166</v>
+        <v>41.93878617504267</v>
       </c>
       <c r="G24">
-        <v>34.47639660997732</v>
+        <v>2.033812127254756</v>
       </c>
       <c r="H24">
-        <v>34.12402902490662</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.929888924050529</v>
+        <v>11.19474217610829</v>
       </c>
       <c r="K24">
-        <v>53.4991830021109</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.14320129925517</v>
       </c>
       <c r="M24">
-        <v>35.93109788700374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.08517664126512</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.15330402707968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.770914563400115</v>
+        <v>21.77684428880949</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.07236362259916</v>
+        <v>10.29273477342285</v>
       </c>
       <c r="E25">
-        <v>4.771856318019577</v>
+        <v>18.0816532287778</v>
       </c>
       <c r="F25">
-        <v>39.30978729519556</v>
+        <v>39.2991651928176</v>
       </c>
       <c r="G25">
-        <v>30.32683666713418</v>
+        <v>2.062082099995847</v>
       </c>
       <c r="H25">
-        <v>30.12137980578529</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.408373145682438</v>
+        <v>10.55939376526549</v>
       </c>
       <c r="K25">
-        <v>48.03801301922114</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.52337130137846</v>
       </c>
       <c r="M25">
-        <v>32.23862841566162</v>
+        <v>18.25332894159007</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.65137806272661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.16481914277839</v>
+        <v>12.90414111004896</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.441534502731688</v>
+        <v>5.707027788936601</v>
       </c>
       <c r="E2">
-        <v>16.83316826345644</v>
+        <v>9.6722078606889</v>
       </c>
       <c r="F2">
-        <v>37.52641097942148</v>
+        <v>24.54908579965423</v>
       </c>
       <c r="G2">
-        <v>2.083077410980814</v>
+        <v>2.111726251881514</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.07894715314425</v>
+        <v>7.284706693589849</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.23892609368722</v>
       </c>
       <c r="L2">
-        <v>13.24481405400451</v>
+        <v>5.831887934875289</v>
       </c>
       <c r="M2">
-        <v>17.00831864663793</v>
+        <v>10.11781712628679</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.4201514429314</v>
       </c>
       <c r="O2">
-        <v>30.91909682063524</v>
+        <v>18.04772690304288</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.02613535558438</v>
+        <v>12.36668196906412</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.836977900836656</v>
+        <v>5.665799094051276</v>
       </c>
       <c r="E3">
-        <v>15.94830376670343</v>
+        <v>9.742770531473335</v>
       </c>
       <c r="F3">
-        <v>36.42388972870302</v>
+        <v>24.39675273695662</v>
       </c>
       <c r="G3">
-        <v>2.097551172617059</v>
+        <v>2.116399633291018</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.74523041379773</v>
+        <v>7.330922449983418</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.53840032695343</v>
       </c>
       <c r="L3">
-        <v>12.34803770197406</v>
+        <v>5.63741914608826</v>
       </c>
       <c r="M3">
-        <v>16.13515639413833</v>
+        <v>9.84724095138735</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.62260487718722</v>
       </c>
       <c r="O3">
-        <v>29.80960540970026</v>
+        <v>18.00815085496209</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.30500893421597</v>
+        <v>12.02978591260999</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.451427327573818</v>
+        <v>5.642231284495378</v>
       </c>
       <c r="E4">
-        <v>15.38569372693779</v>
+        <v>9.788428933815789</v>
       </c>
       <c r="F4">
-        <v>35.79356015629628</v>
+        <v>24.31954631128486</v>
       </c>
       <c r="G4">
-        <v>2.106595994036168</v>
+        <v>2.119365218578592</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.536395839028049</v>
+        <v>7.360290788829385</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.08570351321857</v>
       </c>
       <c r="L4">
-        <v>11.84522735772648</v>
+        <v>5.516239851126636</v>
       </c>
       <c r="M4">
-        <v>15.58533837155768</v>
+        <v>9.680815683548758</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.74988044922124</v>
       </c>
       <c r="O4">
-        <v>29.15942114741474</v>
+        <v>17.99594042902875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.00581614478915</v>
+        <v>11.89097169184201</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.290627059054302</v>
+        <v>5.633068741455117</v>
       </c>
       <c r="E5">
-        <v>15.15159099539141</v>
+        <v>9.80761948213115</v>
       </c>
       <c r="F5">
-        <v>35.54811379515731</v>
+        <v>24.29210458093589</v>
       </c>
       <c r="G5">
-        <v>2.110326420689865</v>
+        <v>2.120598337350329</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.450331133961654</v>
+        <v>7.372510584506347</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.89560326798335</v>
       </c>
       <c r="L5">
-        <v>11.63589310517801</v>
+        <v>5.466482760283682</v>
       </c>
       <c r="M5">
-        <v>15.35801972556191</v>
+        <v>9.613016636323655</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.80251240737197</v>
       </c>
       <c r="O5">
-        <v>28.9021988879616</v>
+        <v>17.99391712811431</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.95582072294057</v>
+        <v>11.86783604052755</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.263701910753062</v>
+        <v>5.631574029461249</v>
       </c>
       <c r="E6">
-        <v>15.11242774950637</v>
+        <v>9.810841294113413</v>
       </c>
       <c r="F6">
-        <v>35.50803811053178</v>
+        <v>24.28778811019077</v>
       </c>
       <c r="G6">
-        <v>2.110948682257396</v>
+        <v>2.120804595568706</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.435982974175829</v>
+        <v>7.374554964852323</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.86369956930139</v>
       </c>
       <c r="L6">
-        <v>11.60086854249898</v>
+        <v>5.458200131438062</v>
       </c>
       <c r="M6">
-        <v>15.32008282756935</v>
+        <v>9.601762715443858</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.81129873795607</v>
       </c>
       <c r="O6">
-        <v>28.85995247313006</v>
+        <v>17.99375688889106</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.30099517752849</v>
+        <v>12.02791970391088</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.449273725429467</v>
+        <v>5.642105924947074</v>
       </c>
       <c r="E7">
-        <v>15.38255605657879</v>
+        <v>9.78868538081244</v>
       </c>
       <c r="F7">
-        <v>35.79020415938079</v>
+        <v>24.31916006099957</v>
       </c>
       <c r="G7">
-        <v>2.106646117215769</v>
+        <v>2.119381748584256</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.535238996654419</v>
+        <v>7.360454565692367</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.08316243789548</v>
       </c>
       <c r="L7">
-        <v>11.84242202689286</v>
+        <v>5.515570232443129</v>
       </c>
       <c r="M7">
-        <v>15.5822856095757</v>
+        <v>9.679901111752203</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.75058713465523</v>
       </c>
       <c r="O7">
-        <v>29.15592093417615</v>
+        <v>17.99590130441336</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.77685747616589</v>
+        <v>12.7203728382769</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.236008357730718</v>
+        <v>5.692451152854003</v>
       </c>
       <c r="E8">
-        <v>16.53207085558114</v>
+        <v>9.696052346030863</v>
       </c>
       <c r="F8">
-        <v>37.13640144287386</v>
+        <v>24.49312382701845</v>
       </c>
       <c r="G8">
-        <v>2.088038298269936</v>
+        <v>2.113317963346959</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.964708986995294</v>
+        <v>7.300437647378347</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.00209611913108</v>
       </c>
       <c r="L8">
-        <v>12.9323542617199</v>
+        <v>5.765244017210541</v>
       </c>
       <c r="M8">
-        <v>16.71018573402079</v>
+        <v>10.02463755312826</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.48935345066822</v>
       </c>
       <c r="O8">
-        <v>30.53004851727588</v>
+        <v>18.03152001366352</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.49160172727191</v>
+        <v>14.01570099955134</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.66967577286171</v>
+        <v>5.804911711568189</v>
       </c>
       <c r="E9">
-        <v>18.63458451820971</v>
+        <v>9.533016953090742</v>
       </c>
       <c r="F9">
-        <v>40.16062885282295</v>
+        <v>24.96725367412573</v>
       </c>
       <c r="G9">
-        <v>2.052551010118366</v>
+        <v>2.102168104153967</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.77530705674101</v>
+        <v>7.190491567115361</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.62351300232894</v>
       </c>
       <c r="L9">
-        <v>15.08185650149119</v>
+        <v>6.23797588871029</v>
       </c>
       <c r="M9">
-        <v>18.80822275325748</v>
+        <v>10.69449189214582</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.99968645430081</v>
       </c>
       <c r="O9">
-        <v>33.47636017720223</v>
+        <v>18.2010830890875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.37475519579148</v>
+        <v>14.9203513143746</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.66511902859957</v>
+        <v>5.895709887140528</v>
       </c>
       <c r="E10">
-        <v>20.09224514752137</v>
+        <v>9.424754914235987</v>
       </c>
       <c r="F10">
-        <v>42.64030273587723</v>
+        <v>25.40087924203581</v>
       </c>
       <c r="G10">
-        <v>2.026686365708583</v>
+        <v>2.094396849340645</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.35228321079281</v>
+        <v>7.114261686798194</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.70358196959957</v>
       </c>
       <c r="L10">
-        <v>16.53474485922962</v>
+        <v>6.571706289312186</v>
       </c>
       <c r="M10">
-        <v>20.57442724268726</v>
+        <v>11.17809860722151</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.65232645961121</v>
       </c>
       <c r="O10">
-        <v>35.80693863792639</v>
+        <v>18.39144837889846</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.20817882115501</v>
+        <v>15.32024877519109</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.10797726530519</v>
+        <v>5.938740139634286</v>
       </c>
       <c r="E11">
-        <v>20.73867160492005</v>
+        <v>9.378049831462866</v>
       </c>
       <c r="F11">
-        <v>43.83123793950232</v>
+        <v>25.61742116521802</v>
       </c>
       <c r="G11">
-        <v>2.014855802661105</v>
+        <v>2.090945539320276</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.61127450243522</v>
+        <v>7.080530927918777</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.17077751177881</v>
       </c>
       <c r="L11">
-        <v>17.17097435595489</v>
+        <v>6.720008244864208</v>
       </c>
       <c r="M11">
-        <v>21.36899323832375</v>
+        <v>11.39536923368315</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.49667180073216</v>
       </c>
       <c r="O11">
-        <v>36.90803070826863</v>
+        <v>18.49334534357732</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.52218571260349</v>
+        <v>15.4699126117106</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.27451329585443</v>
+        <v>5.955277838323505</v>
       </c>
       <c r="E12">
-        <v>20.98131928623027</v>
+        <v>9.360734109099363</v>
       </c>
       <c r="F12">
-        <v>44.29202683496573</v>
+        <v>25.7022448459877</v>
       </c>
       <c r="G12">
-        <v>2.010355548347333</v>
+        <v>2.089650048637336</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.70892304395532</v>
+        <v>7.067890869736805</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.34423054641253</v>
       </c>
       <c r="L12">
-        <v>17.40861297306725</v>
+        <v>6.775621566907655</v>
       </c>
       <c r="M12">
-        <v>21.6656270736933</v>
+        <v>11.47718785060481</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.43804094862644</v>
       </c>
       <c r="O12">
-        <v>37.33146447330508</v>
+        <v>18.53420914016665</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.45344904680667</v>
+        <v>15.43775982894674</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.23869369274012</v>
+        <v>5.951705420716904</v>
       </c>
       <c r="E13">
-        <v>20.9291510872006</v>
+        <v>9.364446802483497</v>
       </c>
       <c r="F13">
-        <v>44.1923371746136</v>
+        <v>25.68385019831358</v>
       </c>
       <c r="G13">
-        <v>2.011325856635788</v>
+        <v>2.089928556871918</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.68791013648987</v>
+        <v>7.070607264903011</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.30702820644949</v>
       </c>
       <c r="L13">
-        <v>17.35757480870941</v>
+        <v>6.763669078054814</v>
       </c>
       <c r="M13">
-        <v>21.60192530743309</v>
+        <v>11.45958803892072</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13.45065471972855</v>
       </c>
       <c r="O13">
-        <v>37.23997093744159</v>
+        <v>18.52530588737584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.23394414240741</v>
+        <v>15.33259764247735</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.12169988609453</v>
+        <v>5.940095864129258</v>
       </c>
       <c r="E14">
-        <v>20.7586755392627</v>
+        <v>9.376617802952255</v>
       </c>
       <c r="F14">
-        <v>43.86894567182811</v>
+        <v>25.62434279156242</v>
       </c>
       <c r="G14">
-        <v>2.014486040353958</v>
+        <v>2.090838732787915</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.61931611524026</v>
+        <v>7.079488374139944</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.18511695439613</v>
       </c>
       <c r="L14">
-        <v>17.19058925645379</v>
+        <v>6.724594726571444</v>
       </c>
       <c r="M14">
-        <v>21.3934807421755</v>
+        <v>11.40211000922822</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.4918421108923</v>
       </c>
       <c r="O14">
-        <v>36.94273301179019</v>
+        <v>18.49666115141586</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.09908241217053</v>
+        <v>15.26794989021104</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.04989505609985</v>
+        <v>5.933016177527463</v>
       </c>
       <c r="E15">
-        <v>20.65398448553079</v>
+        <v>9.384121287195207</v>
       </c>
       <c r="F15">
-        <v>43.67216231624101</v>
+        <v>25.58826196854161</v>
       </c>
       <c r="G15">
-        <v>2.016418744124968</v>
+        <v>2.091397713496719</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.57724752228904</v>
+        <v>7.084945544165707</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.1099920197514</v>
       </c>
       <c r="L15">
-        <v>17.08788617428019</v>
+        <v>6.700588436918192</v>
       </c>
       <c r="M15">
-        <v>21.26525878086629</v>
+        <v>11.36684171835325</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.51711039448297</v>
       </c>
       <c r="O15">
-        <v>36.76153023998861</v>
+        <v>18.47941429192017</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.31983340003887</v>
+        <v>14.89397439340068</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.63599831074494</v>
+        <v>5.892932054669047</v>
       </c>
       <c r="E16">
-        <v>20.04968463111035</v>
+        <v>9.427858777970117</v>
       </c>
       <c r="F16">
-        <v>42.56379888880979</v>
+        <v>25.38712024069941</v>
       </c>
       <c r="G16">
-        <v>2.027457324640894</v>
+        <v>2.094624036503425</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.33529326314586</v>
+        <v>7.116484858568546</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.67256441799912</v>
       </c>
       <c r="L16">
-        <v>16.49269041533348</v>
+        <v>6.561940138669001</v>
       </c>
       <c r="M16">
-        <v>20.5218877602319</v>
+        <v>11.16383889539032</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.66254406914792</v>
       </c>
       <c r="O16">
-        <v>35.73584905649573</v>
+        <v>18.38510373307272</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.83592938119773</v>
+        <v>14.66149922544614</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.37970665626553</v>
+        <v>5.868780187908841</v>
       </c>
       <c r="E17">
-        <v>19.67485829261445</v>
+        <v>9.455345019053929</v>
       </c>
       <c r="F17">
-        <v>41.90044940937089</v>
+        <v>25.26870338628306</v>
       </c>
       <c r="G17">
-        <v>2.034205352829923</v>
+        <v>2.096624336157018</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.1860157626735</v>
+        <v>7.136073494094526</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.39803803189032</v>
       </c>
       <c r="L17">
-        <v>16.12140674377992</v>
+        <v>6.475953539086747</v>
       </c>
       <c r="M17">
-        <v>20.05793776074304</v>
+        <v>11.03855674245498</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.75234871018992</v>
       </c>
       <c r="O17">
-        <v>35.11746594088861</v>
+        <v>18.33122188756052</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.55540025551481</v>
+        <v>14.52669529576744</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.23133663229666</v>
+        <v>5.855051424565561</v>
       </c>
       <c r="E18">
-        <v>19.45767973745156</v>
+        <v>9.471393508051072</v>
       </c>
       <c r="F18">
-        <v>41.52477491632515</v>
+        <v>25.20240553719224</v>
       </c>
       <c r="G18">
-        <v>2.038081317662109</v>
+        <v>2.097782788967945</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.09982194902654</v>
+        <v>7.147429646132538</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.23786530157332</v>
       </c>
       <c r="L18">
-        <v>15.90551166325403</v>
+        <v>6.426167618434462</v>
       </c>
       <c r="M18">
-        <v>19.78808041491803</v>
+        <v>10.96624477695804</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.80422593584055</v>
       </c>
       <c r="O18">
-        <v>34.76559243462147</v>
+        <v>18.30166602619797</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46003632899782</v>
+        <v>14.48086894640316</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.18092923286521</v>
+        <v>5.850431205519501</v>
       </c>
       <c r="E19">
-        <v>19.38386727167006</v>
+        <v>9.476868187494206</v>
       </c>
       <c r="F19">
-        <v>41.39856556729713</v>
+        <v>25.18026785703743</v>
       </c>
       <c r="G19">
-        <v>2.039393043121808</v>
+        <v>2.098176401925745</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.07057912776676</v>
+        <v>7.151290071390721</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.18324319508113</v>
       </c>
       <c r="L19">
-        <v>15.83200358528015</v>
+        <v>6.409255825047539</v>
       </c>
       <c r="M19">
-        <v>19.69618646732003</v>
+        <v>10.94171984245477</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.82182994752897</v>
       </c>
       <c r="O19">
-        <v>34.64709244180667</v>
+        <v>18.29190306024594</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.88766859512582</v>
+        <v>14.68636020334624</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.40708669286933</v>
+        <v>5.871334387399193</v>
       </c>
       <c r="E20">
-        <v>19.7149219398043</v>
+        <v>9.452394280512845</v>
       </c>
       <c r="F20">
-        <v>41.97045204951691</v>
+        <v>25.2811210993903</v>
       </c>
       <c r="G20">
-        <v>2.033487638128006</v>
+        <v>2.096410584117296</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.20194065590299</v>
+        <v>7.133979031515915</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.42749699535084</v>
       </c>
       <c r="L20">
-        <v>16.1611711876552</v>
+        <v>6.485141288175958</v>
       </c>
       <c r="M20">
-        <v>20.10763500504703</v>
+        <v>11.05191991982757</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.74276586562687</v>
       </c>
       <c r="O20">
-        <v>35.18289647904111</v>
+        <v>18.33680855570413</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.29850283112717</v>
+        <v>15.36353500383646</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.15609298967292</v>
+        <v>5.943499316599532</v>
       </c>
       <c r="E21">
-        <v>20.80880401787239</v>
+        <v>9.373032790513395</v>
       </c>
       <c r="F21">
-        <v>43.96366033765899</v>
+        <v>25.64174453879502</v>
       </c>
       <c r="G21">
-        <v>2.013558465441274</v>
+        <v>2.090571086510868</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.63947466710905</v>
+        <v>7.076876191092353</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.22101916357895</v>
       </c>
       <c r="L21">
-        <v>17.2397238753114</v>
+        <v>6.736086904332092</v>
       </c>
       <c r="M21">
-        <v>21.45481863945213</v>
+        <v>11.41900558915512</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.47973612894407</v>
       </c>
       <c r="O21">
-        <v>37.02985758853078</v>
+        <v>18.50501238641901</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.26838770416143</v>
+        <v>15.79576641535711</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.63899040615186</v>
+        <v>5.99207765469963</v>
       </c>
       <c r="E22">
-        <v>21.51141834575372</v>
+        <v>9.323327460237183</v>
       </c>
       <c r="F22">
-        <v>45.32401632976479</v>
+        <v>25.89391295811368</v>
       </c>
       <c r="G22">
-        <v>2.000408799970328</v>
+        <v>2.086821038893206</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.923002061465</v>
+        <v>7.040330203127004</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.71944999699648</v>
       </c>
       <c r="L22">
-        <v>17.92561222808798</v>
+        <v>6.896900708310577</v>
       </c>
       <c r="M22">
-        <v>22.31068236603561</v>
+        <v>11.65622797920723</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>13.30963679280363</v>
       </c>
       <c r="O22">
-        <v>38.27511534648232</v>
+        <v>18.62825302691224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.74237335217372</v>
+        <v>15.56604983605896</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.38176061490087</v>
+        <v>5.966022779974109</v>
       </c>
       <c r="E23">
-        <v>21.13744133438693</v>
+        <v>9.34965662355313</v>
       </c>
       <c r="F23">
-        <v>44.59238324724686</v>
+        <v>25.75780251211262</v>
       </c>
       <c r="G23">
-        <v>2.007442610310516</v>
+        <v>2.088816646838145</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.77186801557994</v>
+        <v>7.059765699162765</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.45527079146703</v>
       </c>
       <c r="L23">
-        <v>17.5611812460275</v>
+        <v>6.81137535603882</v>
       </c>
       <c r="M23">
-        <v>21.85602757775521</v>
+        <v>11.52988372518323</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.40026624122888</v>
       </c>
       <c r="O23">
-        <v>37.60675655182525</v>
+        <v>18.56123444183941</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.86428455328747</v>
+        <v>14.67512413243741</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.39471138896453</v>
+        <v>5.87017914606689</v>
       </c>
       <c r="E24">
-        <v>19.69681443439542</v>
+        <v>9.453727542638166</v>
       </c>
       <c r="F24">
-        <v>41.93878617504267</v>
+        <v>25.27550150599849</v>
       </c>
       <c r="G24">
-        <v>2.033812127254756</v>
+        <v>2.096507195036771</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.19474217610829</v>
+        <v>7.134925643829624</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.41418589897111</v>
       </c>
       <c r="L24">
-        <v>16.14320129925517</v>
+        <v>6.480988597235382</v>
       </c>
       <c r="M24">
-        <v>20.08517664126512</v>
+        <v>11.04587931184326</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.74709749719267</v>
       </c>
       <c r="O24">
-        <v>35.15330402707968</v>
+        <v>18.33427840120724</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.77684428880949</v>
+        <v>13.67298214689191</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.29273477342285</v>
+        <v>5.773036493695902</v>
       </c>
       <c r="E25">
-        <v>18.0816532287778</v>
+        <v>9.575113019277364</v>
       </c>
       <c r="F25">
-        <v>39.2991651928176</v>
+        <v>24.82428901732061</v>
       </c>
       <c r="G25">
-        <v>2.062082099995847</v>
+        <v>2.105108226354491</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.55939376526549</v>
+        <v>7.219423368972231</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.20436711936007</v>
       </c>
       <c r="L25">
-        <v>14.52337130137846</v>
+        <v>6.112260885977181</v>
       </c>
       <c r="M25">
-        <v>18.25332894159007</v>
+        <v>10.51445573220479</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.12987249360273</v>
       </c>
       <c r="O25">
-        <v>32.65137806272661</v>
+        <v>18.14400942905509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.90414111004896</v>
+        <v>16.77850740466121</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.707027788936601</v>
+        <v>9.495261758223313</v>
       </c>
       <c r="E2">
-        <v>9.6722078606889</v>
+        <v>15.9014303887987</v>
       </c>
       <c r="F2">
-        <v>24.54908579965423</v>
+        <v>37.16850316517689</v>
       </c>
       <c r="G2">
-        <v>2.111726251881514</v>
+        <v>3.681687945001749</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.284706693589849</v>
+        <v>11.77521476605821</v>
       </c>
       <c r="K2">
-        <v>12.23892609368722</v>
+        <v>9.54365112532364</v>
       </c>
       <c r="L2">
-        <v>5.831887934875289</v>
+        <v>8.989686634232084</v>
       </c>
       <c r="M2">
-        <v>10.11781712628679</v>
+        <v>15.70272226544129</v>
       </c>
       <c r="N2">
-        <v>14.4201514429314</v>
+        <v>22.10015236453665</v>
       </c>
       <c r="O2">
-        <v>18.04772690304288</v>
+        <v>27.95671559586544</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.36668196906412</v>
+        <v>16.70564819522751</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.665799094051276</v>
+        <v>9.504882877313561</v>
       </c>
       <c r="E3">
-        <v>9.742770531473335</v>
+        <v>15.93409712915508</v>
       </c>
       <c r="F3">
-        <v>24.39675273695662</v>
+        <v>37.24430682563635</v>
       </c>
       <c r="G3">
-        <v>2.116399633291018</v>
+        <v>3.683510355783175</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.330922449983418</v>
+        <v>11.79209072448908</v>
       </c>
       <c r="K3">
-        <v>11.53840032695343</v>
+        <v>9.339716452807622</v>
       </c>
       <c r="L3">
-        <v>5.63741914608826</v>
+        <v>8.971029351479286</v>
       </c>
       <c r="M3">
-        <v>9.84724095138735</v>
+        <v>15.68556075396452</v>
       </c>
       <c r="N3">
-        <v>14.62260487718722</v>
+        <v>22.16187785978799</v>
       </c>
       <c r="O3">
-        <v>18.00815085496209</v>
+        <v>28.023904069832</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.02978591260999</v>
+        <v>16.6636835488175</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.642231284495378</v>
+        <v>9.511779550686898</v>
       </c>
       <c r="E4">
-        <v>9.788428933815789</v>
+        <v>15.95538392873389</v>
       </c>
       <c r="F4">
-        <v>24.31954631128486</v>
+        <v>37.29774537207848</v>
       </c>
       <c r="G4">
-        <v>2.119365218578592</v>
+        <v>3.684689938415761</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.360290788829385</v>
+        <v>11.80300796999173</v>
       </c>
       <c r="K4">
-        <v>11.08570351321857</v>
+        <v>9.213717417787315</v>
       </c>
       <c r="L4">
-        <v>5.516239851126636</v>
+        <v>8.960577142446086</v>
       </c>
       <c r="M4">
-        <v>9.680815683548758</v>
+        <v>15.67700287759534</v>
       </c>
       <c r="N4">
-        <v>14.74988044922124</v>
+        <v>22.20157529633601</v>
       </c>
       <c r="O4">
-        <v>17.99594042902875</v>
+        <v>28.07004035728721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.89097169184201</v>
+        <v>16.64729304058897</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.633068741455117</v>
+        <v>9.514839292564659</v>
       </c>
       <c r="E5">
-        <v>9.80761948213115</v>
+        <v>15.96436831845352</v>
       </c>
       <c r="F5">
-        <v>24.29210458093589</v>
+        <v>37.32125439557799</v>
       </c>
       <c r="G5">
-        <v>2.120598337350329</v>
+        <v>3.685185916847539</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.372510584506347</v>
+        <v>11.80759686925247</v>
       </c>
       <c r="K5">
-        <v>10.89560326798335</v>
+        <v>9.162247312911878</v>
       </c>
       <c r="L5">
-        <v>5.466482760283682</v>
+        <v>8.956572929224478</v>
       </c>
       <c r="M5">
-        <v>9.613016636323655</v>
+        <v>15.67401650798209</v>
       </c>
       <c r="N5">
-        <v>14.80251240737197</v>
+        <v>22.21820568844815</v>
       </c>
       <c r="O5">
-        <v>17.99391712811431</v>
+        <v>28.09006800238951</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.86783604052755</v>
+        <v>16.64461469763065</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.631574029461249</v>
+        <v>9.515362432098096</v>
       </c>
       <c r="E6">
-        <v>9.810841294113413</v>
+        <v>15.96587890501543</v>
       </c>
       <c r="F6">
-        <v>24.28778811019077</v>
+        <v>37.32526263741814</v>
       </c>
       <c r="G6">
-        <v>2.120804595568706</v>
+        <v>3.6852691984798</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.374554964852323</v>
+        <v>11.80836732157526</v>
       </c>
       <c r="K6">
-        <v>10.86369956930139</v>
+        <v>9.153695377754763</v>
       </c>
       <c r="L6">
-        <v>5.458200131438062</v>
+        <v>8.955923522337061</v>
       </c>
       <c r="M6">
-        <v>9.601762715443858</v>
+        <v>15.6735509769104</v>
       </c>
       <c r="N6">
-        <v>14.81129873795607</v>
+        <v>22.2209945730313</v>
       </c>
       <c r="O6">
-        <v>17.99375688889106</v>
+        <v>28.09346763911914</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.02791970391088</v>
+        <v>16.66345960688153</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.642105924947074</v>
+        <v>9.511819805367329</v>
       </c>
       <c r="E7">
-        <v>9.78868538081244</v>
+        <v>15.95550383981827</v>
       </c>
       <c r="F7">
-        <v>24.31916006099957</v>
+        <v>37.29805541065526</v>
       </c>
       <c r="G7">
-        <v>2.119381748584256</v>
+        <v>3.684696565388091</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.360454565692367</v>
+        <v>11.80306928998382</v>
       </c>
       <c r="K7">
-        <v>11.08316243789548</v>
+        <v>9.213023680860175</v>
       </c>
       <c r="L7">
-        <v>5.515570232443129</v>
+        <v>8.960522103533078</v>
       </c>
       <c r="M7">
-        <v>9.679901111752203</v>
+        <v>15.67696056950385</v>
       </c>
       <c r="N7">
-        <v>14.75058713465523</v>
+        <v>22.20179774222799</v>
       </c>
       <c r="O7">
-        <v>17.99590130441336</v>
+        <v>28.0703054914739</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.7203728382769</v>
+        <v>16.75281878390405</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.692451152854003</v>
+        <v>9.498374122775534</v>
       </c>
       <c r="E8">
-        <v>9.696052346030863</v>
+        <v>15.91243918229513</v>
       </c>
       <c r="F8">
-        <v>24.49312382701845</v>
+        <v>37.1932085043775</v>
       </c>
       <c r="G8">
-        <v>2.113317963346959</v>
+        <v>3.682303759786345</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.300437647378347</v>
+        <v>11.7809185703866</v>
       </c>
       <c r="K8">
-        <v>12.00209611913108</v>
+        <v>9.473539440845931</v>
       </c>
       <c r="L8">
-        <v>5.765244017210541</v>
+        <v>8.983047078060762</v>
       </c>
       <c r="M8">
-        <v>10.02463755312826</v>
+        <v>15.69639620981849</v>
       </c>
       <c r="N8">
-        <v>14.48935345066822</v>
+        <v>22.12106298783212</v>
       </c>
       <c r="O8">
-        <v>18.03152001366352</v>
+        <v>27.97886831672484</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.01570099955134</v>
+        <v>16.9494068608814</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.804911711568189</v>
+        <v>9.479832824346484</v>
       </c>
       <c r="E9">
-        <v>9.533016953090742</v>
+        <v>15.83771026229672</v>
       </c>
       <c r="F9">
-        <v>24.96725367412573</v>
+        <v>37.04236412950846</v>
       </c>
       <c r="G9">
-        <v>2.102168104153967</v>
+        <v>3.678090295894985</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.190491567115361</v>
+        <v>11.74186964908907</v>
       </c>
       <c r="K9">
-        <v>13.62351300232894</v>
+        <v>9.975155935335945</v>
       </c>
       <c r="L9">
-        <v>6.23797588871029</v>
+        <v>9.035050666520505</v>
       </c>
       <c r="M9">
-        <v>10.69449189214582</v>
+        <v>15.75006140474004</v>
       </c>
       <c r="N9">
-        <v>13.99968645430081</v>
+        <v>21.97694582564857</v>
       </c>
       <c r="O9">
-        <v>18.2010830890875</v>
+        <v>27.83833895449647</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.9203513143746</v>
+        <v>17.10596084525239</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.895709887140528</v>
+        <v>9.470948769925934</v>
       </c>
       <c r="E10">
-        <v>9.424754914235987</v>
+        <v>15.78868697237625</v>
       </c>
       <c r="F10">
-        <v>25.40087924203581</v>
+        <v>36.96498192270537</v>
       </c>
       <c r="G10">
-        <v>2.094396849340645</v>
+        <v>3.675283584062934</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.114261686798194</v>
+        <v>11.71583081199342</v>
       </c>
       <c r="K10">
-        <v>14.70358196959957</v>
+        <v>10.33418293054735</v>
       </c>
       <c r="L10">
-        <v>6.571706289312186</v>
+        <v>9.077850658819136</v>
       </c>
       <c r="M10">
-        <v>11.17809860722151</v>
+        <v>15.79875272799007</v>
       </c>
       <c r="N10">
-        <v>13.65232645961121</v>
+        <v>21.87963529514246</v>
       </c>
       <c r="O10">
-        <v>18.39144837889846</v>
+        <v>27.75878238361203</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.32024877519109</v>
+        <v>17.17960764471222</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.938740139634286</v>
+        <v>9.467928663883015</v>
       </c>
       <c r="E11">
-        <v>9.378049831462866</v>
+        <v>15.76765208337408</v>
       </c>
       <c r="F11">
-        <v>25.61742116521802</v>
+        <v>36.93704753444532</v>
       </c>
       <c r="G11">
-        <v>2.090945539320276</v>
+        <v>3.674068840905536</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.080530927918777</v>
+        <v>11.70455527159366</v>
       </c>
       <c r="K11">
-        <v>15.17077751177881</v>
+        <v>10.4946980144586</v>
       </c>
       <c r="L11">
-        <v>6.720008244864208</v>
+        <v>9.098277055669227</v>
       </c>
       <c r="M11">
-        <v>11.39536923368315</v>
+        <v>15.82286411742238</v>
       </c>
       <c r="N11">
-        <v>13.49667180073216</v>
+        <v>21.83720917298587</v>
       </c>
       <c r="O11">
-        <v>18.49334534357732</v>
+        <v>27.72774243902249</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.4699126117106</v>
+        <v>17.2078268755682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.955277838323505</v>
+        <v>9.466931216544102</v>
       </c>
       <c r="E12">
-        <v>9.360734109099363</v>
+        <v>15.75986804022215</v>
       </c>
       <c r="F12">
-        <v>25.7022448459877</v>
+        <v>36.92751448961203</v>
       </c>
       <c r="G12">
-        <v>2.089650048637336</v>
+        <v>3.673617723174646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.067890869736805</v>
+        <v>11.70036703577574</v>
       </c>
       <c r="K12">
-        <v>15.34423054641253</v>
+        <v>10.55501963539482</v>
       </c>
       <c r="L12">
-        <v>6.775621566907655</v>
+        <v>9.106145749196838</v>
       </c>
       <c r="M12">
-        <v>11.47718785060481</v>
+        <v>15.83227178849095</v>
       </c>
       <c r="N12">
-        <v>13.43804094862644</v>
+        <v>21.82140686612494</v>
       </c>
       <c r="O12">
-        <v>18.53420914016665</v>
+        <v>27.71672953270146</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.43775982894674</v>
+        <v>17.20173494879985</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.951705420716904</v>
+        <v>9.467139543145485</v>
       </c>
       <c r="E13">
-        <v>9.364446802483497</v>
+        <v>15.76153641499147</v>
       </c>
       <c r="F13">
-        <v>25.68385019831358</v>
+        <v>36.92952112242527</v>
       </c>
       <c r="G13">
-        <v>2.089928556871918</v>
+        <v>3.67371448522375</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.070607264903011</v>
+        <v>11.70126542512826</v>
       </c>
       <c r="K13">
-        <v>15.30702820644949</v>
+        <v>10.54204972471021</v>
       </c>
       <c r="L13">
-        <v>6.763669078054814</v>
+        <v>9.104445203866002</v>
       </c>
       <c r="M13">
-        <v>11.45958803892072</v>
+        <v>15.83023342871379</v>
       </c>
       <c r="N13">
-        <v>13.45065471972855</v>
+        <v>21.82479847306078</v>
       </c>
       <c r="O13">
-        <v>18.52530588737584</v>
+        <v>27.71906838438425</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.33259764247735</v>
+        <v>17.18192273663226</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.940095864129258</v>
+        <v>9.467843677078031</v>
       </c>
       <c r="E14">
-        <v>9.376617802952255</v>
+        <v>15.76700805334002</v>
       </c>
       <c r="F14">
-        <v>25.62434279156242</v>
+        <v>36.93624230041684</v>
       </c>
       <c r="G14">
-        <v>2.090838732787915</v>
+        <v>3.674031549470427</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.079488374139944</v>
+        <v>11.70420907018509</v>
       </c>
       <c r="K14">
-        <v>15.18511695439613</v>
+        <v>10.49967028791282</v>
       </c>
       <c r="L14">
-        <v>6.724594726571444</v>
+        <v>9.098921761763812</v>
       </c>
       <c r="M14">
-        <v>11.40211000922822</v>
+        <v>15.82363256501451</v>
       </c>
       <c r="N14">
-        <v>13.4918421108923</v>
+        <v>21.83590383256767</v>
       </c>
       <c r="O14">
-        <v>18.49666115141586</v>
+        <v>27.72682154212912</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.26794989021104</v>
+        <v>17.16982970241085</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.933016177527463</v>
+        <v>9.46829399910111</v>
       </c>
       <c r="E15">
-        <v>9.384121287195207</v>
+        <v>15.77038319612631</v>
       </c>
       <c r="F15">
-        <v>25.58826196854161</v>
+        <v>36.94049531593505</v>
       </c>
       <c r="G15">
-        <v>2.091397713496719</v>
+        <v>3.674226915540329</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.084945544165707</v>
+        <v>11.70602274984746</v>
       </c>
       <c r="K15">
-        <v>15.1099920197514</v>
+        <v>10.47364984003367</v>
       </c>
       <c r="L15">
-        <v>6.700588436918192</v>
+        <v>9.095555783097197</v>
       </c>
       <c r="M15">
-        <v>11.36684171835325</v>
+        <v>15.81962529881755</v>
       </c>
       <c r="N15">
-        <v>13.51711039448297</v>
+        <v>21.8427404724678</v>
       </c>
       <c r="O15">
-        <v>18.47941429192017</v>
+        <v>27.73166712190968</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.89397439340068</v>
+        <v>17.1011951664739</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.892932054669047</v>
+        <v>9.471166636282577</v>
       </c>
       <c r="E16">
-        <v>9.427858777970117</v>
+        <v>15.79008707284365</v>
       </c>
       <c r="F16">
-        <v>25.38712024069941</v>
+        <v>36.96695375037808</v>
       </c>
       <c r="G16">
-        <v>2.094624036503425</v>
+        <v>3.675364215210205</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.116484858568546</v>
+        <v>11.716579128093</v>
       </c>
       <c r="K16">
-        <v>14.67256441799912</v>
+        <v>10.32363132488317</v>
       </c>
       <c r="L16">
-        <v>6.561940138669001</v>
+        <v>9.076534663885132</v>
       </c>
       <c r="M16">
-        <v>11.16383889539032</v>
+        <v>15.7972160527011</v>
       </c>
       <c r="N16">
-        <v>13.66254406914792</v>
+        <v>21.88244488518007</v>
       </c>
       <c r="O16">
-        <v>18.38510373307272</v>
+        <v>27.76091461578291</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.66149922544614</v>
+        <v>17.05969932426426</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.868780187908841</v>
+        <v>9.473190023922148</v>
       </c>
       <c r="E17">
-        <v>9.455345019053929</v>
+        <v>15.80249856890904</v>
       </c>
       <c r="F17">
-        <v>25.26870338628306</v>
+        <v>36.98504661312334</v>
       </c>
       <c r="G17">
-        <v>2.096624336157018</v>
+        <v>3.676077772190752</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.136073494094526</v>
+        <v>11.72320077744769</v>
       </c>
       <c r="K17">
-        <v>14.39803803189032</v>
+        <v>10.23083797737526</v>
       </c>
       <c r="L17">
-        <v>6.475953539086747</v>
+        <v>9.065108081557836</v>
       </c>
       <c r="M17">
-        <v>11.03855674245498</v>
+        <v>15.7839677094173</v>
       </c>
       <c r="N17">
-        <v>13.75234871018992</v>
+        <v>21.90727291993073</v>
       </c>
       <c r="O17">
-        <v>18.33122188756052</v>
+        <v>27.78017669181833</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.52669529576744</v>
+        <v>17.03606184709356</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.855051424565561</v>
+        <v>9.474449993360947</v>
       </c>
       <c r="E18">
-        <v>9.471393508051072</v>
+        <v>15.80975653802691</v>
       </c>
       <c r="F18">
-        <v>25.20240553719224</v>
+        <v>36.99613718532505</v>
       </c>
       <c r="G18">
-        <v>2.097782788967945</v>
+        <v>3.676494033711498</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.147429646132538</v>
+        <v>11.72706301453667</v>
       </c>
       <c r="K18">
-        <v>14.23786530157332</v>
+        <v>10.17720461690538</v>
       </c>
       <c r="L18">
-        <v>6.426167618434462</v>
+        <v>9.058626081668018</v>
       </c>
       <c r="M18">
-        <v>10.96624477695804</v>
+        <v>15.77653253944686</v>
       </c>
       <c r="N18">
-        <v>13.80422593584055</v>
+        <v>21.92172669523532</v>
       </c>
       <c r="O18">
-        <v>18.30166602619797</v>
+        <v>27.79174051519494</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.48086894640316</v>
+        <v>17.02809863544267</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.850431205519501</v>
+        <v>9.474893134346653</v>
       </c>
       <c r="E19">
-        <v>9.476868187494206</v>
+        <v>15.81223445493189</v>
       </c>
       <c r="F19">
-        <v>25.18026785703743</v>
+        <v>37.00000973794158</v>
       </c>
       <c r="G19">
-        <v>2.098176401925745</v>
+        <v>3.676635977459942</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.151290071390721</v>
+        <v>11.72837992499054</v>
       </c>
       <c r="K19">
-        <v>14.18324319508113</v>
+        <v>10.1590022781608</v>
       </c>
       <c r="L19">
-        <v>6.409255825047539</v>
+        <v>9.056447007422793</v>
       </c>
       <c r="M19">
-        <v>10.94171984245477</v>
+        <v>15.77404702385078</v>
       </c>
       <c r="N19">
-        <v>13.82182994752897</v>
+        <v>21.92665030370364</v>
       </c>
       <c r="O19">
-        <v>18.29190306024594</v>
+        <v>27.79573906965793</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.68636020334624</v>
+        <v>17.06409297358695</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.871334387399193</v>
+        <v>9.472964682275911</v>
       </c>
       <c r="E20">
-        <v>9.452394280512845</v>
+        <v>15.80116501140179</v>
       </c>
       <c r="F20">
-        <v>25.2811210993903</v>
+        <v>36.98304980005709</v>
       </c>
       <c r="G20">
-        <v>2.096410584117296</v>
+        <v>3.676001208474283</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.133979031515915</v>
+        <v>11.72249034262416</v>
       </c>
       <c r="K20">
-        <v>14.42749699535084</v>
+        <v>10.24074344233777</v>
       </c>
       <c r="L20">
-        <v>6.485141288175958</v>
+        <v>9.066315146008741</v>
       </c>
       <c r="M20">
-        <v>11.05191991982757</v>
+        <v>15.78535891332861</v>
       </c>
       <c r="N20">
-        <v>13.74276586562687</v>
+        <v>21.90461200110822</v>
       </c>
       <c r="O20">
-        <v>18.33680855570413</v>
+        <v>27.77807603266742</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.36353500383646</v>
+        <v>17.18773323679596</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.943499316599532</v>
+        <v>9.467632893412631</v>
       </c>
       <c r="E21">
-        <v>9.373032790513395</v>
+        <v>15.76539598213057</v>
       </c>
       <c r="F21">
-        <v>25.64174453879502</v>
+        <v>36.93423976473856</v>
       </c>
       <c r="G21">
-        <v>2.090571086510868</v>
+        <v>3.673938179376948</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.076876191092353</v>
+        <v>11.70334223935059</v>
       </c>
       <c r="K21">
-        <v>15.22101916357895</v>
+        <v>10.51213113708858</v>
       </c>
       <c r="L21">
-        <v>6.736086904332092</v>
+        <v>9.100540534674508</v>
       </c>
       <c r="M21">
-        <v>11.41900558915512</v>
+        <v>15.82556391499388</v>
       </c>
       <c r="N21">
-        <v>13.47973612894407</v>
+        <v>21.8326347760852</v>
       </c>
       <c r="O21">
-        <v>18.50501238641901</v>
+        <v>27.72452413067904</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.79576641535711</v>
+        <v>17.27045840913245</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.99207765469963</v>
+        <v>9.465000107812029</v>
       </c>
       <c r="E22">
-        <v>9.323327460237183</v>
+        <v>15.74307597230452</v>
       </c>
       <c r="F22">
-        <v>25.89391295811368</v>
+        <v>36.90843103438819</v>
       </c>
       <c r="G22">
-        <v>2.086821038893206</v>
+        <v>3.672641605452494</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.040330203127004</v>
+        <v>11.69130311984241</v>
       </c>
       <c r="K22">
-        <v>15.71944999699648</v>
+        <v>10.68678185764669</v>
       </c>
       <c r="L22">
-        <v>6.896900708310577</v>
+        <v>9.123685986636938</v>
       </c>
       <c r="M22">
-        <v>11.65622797920723</v>
+        <v>15.85345360065245</v>
       </c>
       <c r="N22">
-        <v>13.30963679280363</v>
+        <v>21.78712910085887</v>
       </c>
       <c r="O22">
-        <v>18.62825302691224</v>
+        <v>27.69384558192089</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.56604983605896</v>
+        <v>17.226137096441</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.966022779974109</v>
+        <v>9.466327556333136</v>
       </c>
       <c r="E23">
-        <v>9.34965662355313</v>
+        <v>15.75489206619297</v>
       </c>
       <c r="F23">
-        <v>25.75780251211262</v>
+        <v>36.9216483308961</v>
       </c>
       <c r="G23">
-        <v>2.088816646838145</v>
+        <v>3.673328891638453</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.059765699162765</v>
+        <v>11.69768525157816</v>
       </c>
       <c r="K23">
-        <v>15.45527079146703</v>
+        <v>10.5938342622224</v>
       </c>
       <c r="L23">
-        <v>6.81137535603882</v>
+        <v>9.111263026947929</v>
       </c>
       <c r="M23">
-        <v>11.52988372518323</v>
+        <v>15.83842238378576</v>
       </c>
       <c r="N23">
-        <v>13.40026624122888</v>
+        <v>21.81127621481048</v>
       </c>
       <c r="O23">
-        <v>18.56123444183941</v>
+        <v>27.70982380372863</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.67512413243741</v>
+        <v>17.0621059210497</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.87017914606689</v>
+        <v>9.473066257998374</v>
       </c>
       <c r="E24">
-        <v>9.453727542638166</v>
+        <v>15.80176753134224</v>
       </c>
       <c r="F24">
-        <v>25.27550150599849</v>
+        <v>36.9839504138625</v>
       </c>
       <c r="G24">
-        <v>2.096507195036771</v>
+        <v>3.676035804150178</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.134925643829624</v>
+        <v>11.72281135773481</v>
       </c>
       <c r="K24">
-        <v>14.41418589897111</v>
+        <v>10.23626606558229</v>
       </c>
       <c r="L24">
-        <v>6.480988597235382</v>
+        <v>9.065769159964633</v>
       </c>
       <c r="M24">
-        <v>11.04587931184326</v>
+        <v>15.78472938438715</v>
       </c>
       <c r="N24">
-        <v>13.74709749719267</v>
+        <v>21.90581444232068</v>
       </c>
       <c r="O24">
-        <v>18.33427840120724</v>
+        <v>27.77902421501268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.67298214689191</v>
+        <v>16.89402819343861</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.773036493695902</v>
+        <v>9.484014198569607</v>
       </c>
       <c r="E25">
-        <v>9.575113019277364</v>
+        <v>15.8568905203319</v>
       </c>
       <c r="F25">
-        <v>24.82428901732061</v>
+        <v>37.07730168888366</v>
       </c>
       <c r="G25">
-        <v>2.105108226354491</v>
+        <v>3.679179198057293</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.219423368972231</v>
+        <v>11.75196618504877</v>
       </c>
       <c r="K25">
-        <v>13.20436711936007</v>
+        <v>9.840858527110145</v>
       </c>
       <c r="L25">
-        <v>6.112260885977181</v>
+        <v>9.020161977183335</v>
       </c>
       <c r="M25">
-        <v>10.51445573220479</v>
+        <v>15.73390009090563</v>
       </c>
       <c r="N25">
-        <v>14.12987249360273</v>
+        <v>22.01442173764501</v>
       </c>
       <c r="O25">
-        <v>18.14400942905509</v>
+        <v>27.87219869138022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.77850740466121</v>
+        <v>12.90414111004897</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.495261758223313</v>
+        <v>5.707027788936557</v>
       </c>
       <c r="E2">
-        <v>15.9014303887987</v>
+        <v>9.672207860689042</v>
       </c>
       <c r="F2">
-        <v>37.16850316517689</v>
+        <v>24.54908579965406</v>
       </c>
       <c r="G2">
-        <v>3.681687945001749</v>
+        <v>2.11172625188138</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.77521476605821</v>
+        <v>7.284706693589952</v>
       </c>
       <c r="K2">
-        <v>9.54365112532364</v>
+        <v>12.23892609368727</v>
       </c>
       <c r="L2">
-        <v>8.989686634232084</v>
+        <v>5.831887934875293</v>
       </c>
       <c r="M2">
-        <v>15.70272226544129</v>
+        <v>10.11781712628679</v>
       </c>
       <c r="N2">
-        <v>22.10015236453665</v>
+        <v>14.42015144293137</v>
       </c>
       <c r="O2">
-        <v>27.95671559586544</v>
+        <v>18.04772690304276</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.70564819522751</v>
+        <v>12.3666819690641</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.504882877313561</v>
+        <v>5.665799094051219</v>
       </c>
       <c r="E3">
-        <v>15.93409712915508</v>
+        <v>9.742770531473271</v>
       </c>
       <c r="F3">
-        <v>37.24430682563635</v>
+        <v>24.39675273695646</v>
       </c>
       <c r="G3">
-        <v>3.683510355783175</v>
+        <v>2.116399633291018</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.79209072448908</v>
+        <v>7.330922449983383</v>
       </c>
       <c r="K3">
-        <v>9.339716452807622</v>
+        <v>11.53840032695351</v>
       </c>
       <c r="L3">
-        <v>8.971029351479286</v>
+        <v>5.637419146088142</v>
       </c>
       <c r="M3">
-        <v>15.68556075396452</v>
+        <v>9.847240951387267</v>
       </c>
       <c r="N3">
-        <v>22.16187785978799</v>
+        <v>14.62260487718722</v>
       </c>
       <c r="O3">
-        <v>28.023904069832</v>
+        <v>18.00815085496196</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.6636835488175</v>
+        <v>12.02978591260997</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.511779550686898</v>
+        <v>5.642231284495437</v>
       </c>
       <c r="E4">
-        <v>15.95538392873389</v>
+        <v>9.788428933815918</v>
       </c>
       <c r="F4">
-        <v>37.29774537207848</v>
+        <v>24.31954631128474</v>
       </c>
       <c r="G4">
-        <v>3.684689938415761</v>
+        <v>2.119365218578726</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.80300796999173</v>
+        <v>7.360290788829486</v>
       </c>
       <c r="K4">
-        <v>9.213717417787315</v>
+        <v>11.08570351321863</v>
       </c>
       <c r="L4">
-        <v>8.960577142446086</v>
+        <v>5.516239851126674</v>
       </c>
       <c r="M4">
-        <v>15.67700287759534</v>
+        <v>9.680815683548758</v>
       </c>
       <c r="N4">
-        <v>22.20157529633601</v>
+        <v>14.74988044922124</v>
       </c>
       <c r="O4">
-        <v>28.07004035728721</v>
+        <v>17.99594042902865</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.64729304058897</v>
+        <v>11.89097169184207</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.514839292564659</v>
+        <v>5.633068741455125</v>
       </c>
       <c r="E5">
-        <v>15.96436831845352</v>
+        <v>9.807619482131283</v>
       </c>
       <c r="F5">
-        <v>37.32125439557799</v>
+        <v>24.29210458093585</v>
       </c>
       <c r="G5">
-        <v>3.685185916847539</v>
+        <v>2.120598337350196</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.80759686925247</v>
+        <v>7.372510584506417</v>
       </c>
       <c r="K5">
-        <v>9.162247312911878</v>
+        <v>10.89560326798331</v>
       </c>
       <c r="L5">
-        <v>8.956572929224478</v>
+        <v>5.466482760283692</v>
       </c>
       <c r="M5">
-        <v>15.67401650798209</v>
+        <v>9.613016636323723</v>
       </c>
       <c r="N5">
-        <v>22.21820568844815</v>
+        <v>14.80251240737191</v>
       </c>
       <c r="O5">
-        <v>28.09006800238951</v>
+        <v>17.99391712811425</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.64461469763065</v>
+        <v>11.86783604052758</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.515362432098096</v>
+        <v>5.631574029461195</v>
       </c>
       <c r="E6">
-        <v>15.96587890501543</v>
+        <v>9.81084129411348</v>
       </c>
       <c r="F6">
-        <v>37.32526263741814</v>
+        <v>24.28778811019068</v>
       </c>
       <c r="G6">
-        <v>3.6852691984798</v>
+        <v>2.120804595568305</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.80836732157526</v>
+        <v>7.37455496485242</v>
       </c>
       <c r="K6">
-        <v>9.153695377754763</v>
+        <v>10.86369956930138</v>
       </c>
       <c r="L6">
-        <v>8.955923522337061</v>
+        <v>5.458200131438071</v>
       </c>
       <c r="M6">
-        <v>15.6735509769104</v>
+        <v>9.601762715443888</v>
       </c>
       <c r="N6">
-        <v>22.2209945730313</v>
+        <v>14.81129873795604</v>
       </c>
       <c r="O6">
-        <v>28.09346763911914</v>
+        <v>17.99375688889104</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.66345960688153</v>
+        <v>12.02791970391089</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.511819805367329</v>
+        <v>5.642105924947079</v>
       </c>
       <c r="E7">
-        <v>15.95550383981827</v>
+        <v>9.788685380812439</v>
       </c>
       <c r="F7">
-        <v>37.29805541065526</v>
+        <v>24.31916006099937</v>
       </c>
       <c r="G7">
-        <v>3.684696565388091</v>
+        <v>2.119381748583987</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.80306928998382</v>
+        <v>7.360454565692367</v>
       </c>
       <c r="K7">
-        <v>9.213023680860175</v>
+        <v>11.08316243789552</v>
       </c>
       <c r="L7">
-        <v>8.960522103533078</v>
+        <v>5.51557023244308</v>
       </c>
       <c r="M7">
-        <v>15.67696056950385</v>
+        <v>9.679901111752152</v>
       </c>
       <c r="N7">
-        <v>22.20179774222799</v>
+        <v>14.7505871346552</v>
       </c>
       <c r="O7">
-        <v>28.0703054914739</v>
+        <v>17.99590130441323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.75281878390405</v>
+        <v>12.72037283827685</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.498374122775534</v>
+        <v>5.692451152853961</v>
       </c>
       <c r="E8">
-        <v>15.91243918229513</v>
+        <v>9.696052346030866</v>
       </c>
       <c r="F8">
-        <v>37.1932085043775</v>
+        <v>24.49312382701827</v>
       </c>
       <c r="G8">
-        <v>3.682303759786345</v>
+        <v>2.11331796334696</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.7809185703866</v>
+        <v>7.300437647378382</v>
       </c>
       <c r="K8">
-        <v>9.473539440845931</v>
+        <v>12.00209611913113</v>
       </c>
       <c r="L8">
-        <v>8.983047078060762</v>
+        <v>5.765244017210509</v>
       </c>
       <c r="M8">
-        <v>15.69639620981849</v>
+        <v>10.02463755312822</v>
       </c>
       <c r="N8">
-        <v>22.12106298783212</v>
+        <v>14.48935345066826</v>
       </c>
       <c r="O8">
-        <v>27.97886831672484</v>
+        <v>18.03152001366345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.9494068608814</v>
+        <v>14.0157009995513</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.479832824346484</v>
+        <v>5.804911711568309</v>
       </c>
       <c r="E9">
-        <v>15.83771026229672</v>
+        <v>9.533016953090941</v>
       </c>
       <c r="F9">
-        <v>37.04236412950846</v>
+        <v>24.96725367412577</v>
       </c>
       <c r="G9">
-        <v>3.678090295894985</v>
+        <v>2.102168104154368</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.74186964908907</v>
+        <v>7.190491567115425</v>
       </c>
       <c r="K9">
-        <v>9.975155935335945</v>
+        <v>13.62351300232903</v>
       </c>
       <c r="L9">
-        <v>9.035050666520505</v>
+        <v>6.237975888710314</v>
       </c>
       <c r="M9">
-        <v>15.75006140474004</v>
+        <v>10.69449189214583</v>
       </c>
       <c r="N9">
-        <v>21.97694582564857</v>
+        <v>13.99968645430091</v>
       </c>
       <c r="O9">
-        <v>27.83833895449647</v>
+        <v>18.20108308908749</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.10596084525239</v>
+        <v>14.92035131437457</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.470948769925934</v>
+        <v>5.895709887140534</v>
       </c>
       <c r="E10">
-        <v>15.78868697237625</v>
+        <v>9.424754914235987</v>
       </c>
       <c r="F10">
-        <v>36.96498192270537</v>
+        <v>25.40087924203554</v>
       </c>
       <c r="G10">
-        <v>3.675283584062934</v>
+        <v>2.094396849340511</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.71583081199342</v>
+        <v>7.114261686798229</v>
       </c>
       <c r="K10">
-        <v>10.33418293054735</v>
+        <v>14.70358196959965</v>
       </c>
       <c r="L10">
-        <v>9.077850658819136</v>
+        <v>6.571706289312182</v>
       </c>
       <c r="M10">
-        <v>15.79875272799007</v>
+        <v>11.17809860722147</v>
       </c>
       <c r="N10">
-        <v>21.87963529514246</v>
+        <v>13.65232645961115</v>
       </c>
       <c r="O10">
-        <v>27.75878238361203</v>
+        <v>18.39144837889827</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.17960764471222</v>
+        <v>15.32024877519109</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.467928663883015</v>
+        <v>5.938740139634289</v>
       </c>
       <c r="E11">
-        <v>15.76765208337408</v>
+        <v>9.378049831463002</v>
       </c>
       <c r="F11">
-        <v>36.93704753444532</v>
+        <v>25.61742116521787</v>
       </c>
       <c r="G11">
-        <v>3.674068840905536</v>
+        <v>2.090945539320276</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.70455527159366</v>
+        <v>7.080530927918876</v>
       </c>
       <c r="K11">
-        <v>10.4946980144586</v>
+        <v>15.17077751177881</v>
       </c>
       <c r="L11">
-        <v>9.098277055669227</v>
+        <v>6.720008244864191</v>
       </c>
       <c r="M11">
-        <v>15.82286411742238</v>
+        <v>11.39536923368316</v>
       </c>
       <c r="N11">
-        <v>21.83720917298587</v>
+        <v>13.49667180073205</v>
       </c>
       <c r="O11">
-        <v>27.72774243902249</v>
+        <v>18.49334534357719</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.2078268755682</v>
+        <v>15.46991261171065</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.466931216544102</v>
+        <v>5.95527783832371</v>
       </c>
       <c r="E12">
-        <v>15.75986804022215</v>
+        <v>9.360734109099424</v>
       </c>
       <c r="F12">
-        <v>36.92751448961203</v>
+        <v>25.70224484598767</v>
       </c>
       <c r="G12">
-        <v>3.673617723174646</v>
+        <v>2.089650048637604</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.70036703577574</v>
+        <v>7.067890869736739</v>
       </c>
       <c r="K12">
-        <v>10.55501963539482</v>
+        <v>15.34423054641257</v>
       </c>
       <c r="L12">
-        <v>9.106145749196838</v>
+        <v>6.775621566907613</v>
       </c>
       <c r="M12">
-        <v>15.83227178849095</v>
+        <v>11.47718785060481</v>
       </c>
       <c r="N12">
-        <v>21.82140686612494</v>
+        <v>13.43804094862641</v>
       </c>
       <c r="O12">
-        <v>27.71672953270146</v>
+        <v>18.53420914016657</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.20173494879985</v>
+        <v>15.43775982894675</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.467139543145485</v>
+        <v>5.951705420716795</v>
       </c>
       <c r="E13">
-        <v>15.76153641499147</v>
+        <v>9.364446802483565</v>
       </c>
       <c r="F13">
-        <v>36.92952112242527</v>
+        <v>25.68385019831344</v>
       </c>
       <c r="G13">
-        <v>3.67371448522375</v>
+        <v>2.089928556872052</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.70126542512826</v>
+        <v>7.070607264903112</v>
       </c>
       <c r="K13">
-        <v>10.54204972471021</v>
+        <v>15.30702820644955</v>
       </c>
       <c r="L13">
-        <v>9.104445203866002</v>
+        <v>6.763669078054805</v>
       </c>
       <c r="M13">
-        <v>15.83023342871379</v>
+        <v>11.45958803892071</v>
       </c>
       <c r="N13">
-        <v>21.82479847306078</v>
+        <v>13.45065471972855</v>
       </c>
       <c r="O13">
-        <v>27.71906838438425</v>
+        <v>18.52530588737578</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.18192273663226</v>
+        <v>15.33259764247728</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.467843677078031</v>
+        <v>5.940095864129394</v>
       </c>
       <c r="E14">
-        <v>15.76700805334002</v>
+        <v>9.376617802952323</v>
       </c>
       <c r="F14">
-        <v>36.93624230041684</v>
+        <v>25.62434279156238</v>
       </c>
       <c r="G14">
-        <v>3.674031549470427</v>
+        <v>2.090838732787649</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.70420907018509</v>
+        <v>7.07948837413988</v>
       </c>
       <c r="K14">
-        <v>10.49967028791282</v>
+        <v>15.18511695439621</v>
       </c>
       <c r="L14">
-        <v>9.098921761763812</v>
+        <v>6.724594726571413</v>
       </c>
       <c r="M14">
-        <v>15.82363256501451</v>
+        <v>11.40211000922819</v>
       </c>
       <c r="N14">
-        <v>21.83590383256767</v>
+        <v>13.49184211089233</v>
       </c>
       <c r="O14">
-        <v>27.72682154212912</v>
+        <v>18.49666115141578</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.16982970241085</v>
+        <v>15.26794989021105</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.46829399910111</v>
+        <v>5.933016177527309</v>
       </c>
       <c r="E15">
-        <v>15.77038319612631</v>
+        <v>9.38412128719521</v>
       </c>
       <c r="F15">
-        <v>36.94049531593505</v>
+        <v>25.58826196854143</v>
       </c>
       <c r="G15">
-        <v>3.674226915540329</v>
+        <v>2.091397713496721</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.70602274984746</v>
+        <v>7.084945544165808</v>
       </c>
       <c r="K15">
-        <v>10.47364984003367</v>
+        <v>15.10999201975147</v>
       </c>
       <c r="L15">
-        <v>9.095555783097197</v>
+        <v>6.700588436918169</v>
       </c>
       <c r="M15">
-        <v>15.81962529881755</v>
+        <v>11.36684171835323</v>
       </c>
       <c r="N15">
-        <v>21.8427404724678</v>
+        <v>13.51711039448287</v>
       </c>
       <c r="O15">
-        <v>27.73166712190968</v>
+        <v>18.47941429192005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.1011951664739</v>
+        <v>14.89397439340068</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.471166636282577</v>
+        <v>5.892932054669063</v>
       </c>
       <c r="E16">
-        <v>15.79008707284365</v>
+        <v>9.427858777970057</v>
       </c>
       <c r="F16">
-        <v>36.96695375037808</v>
+        <v>25.3871202406994</v>
       </c>
       <c r="G16">
-        <v>3.675364215210205</v>
+        <v>2.094624036503291</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.716579128093</v>
+        <v>7.116484858568511</v>
       </c>
       <c r="K16">
-        <v>10.32363132488317</v>
+        <v>14.67256441799909</v>
       </c>
       <c r="L16">
-        <v>9.076534663885132</v>
+        <v>6.561940138668993</v>
       </c>
       <c r="M16">
-        <v>15.7972160527011</v>
+        <v>11.16383889539032</v>
       </c>
       <c r="N16">
-        <v>21.88244488518007</v>
+        <v>13.66254406914789</v>
       </c>
       <c r="O16">
-        <v>27.76091461578291</v>
+        <v>18.3851037330727</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.05969932426426</v>
+        <v>14.66149922544613</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.473190023922148</v>
+        <v>5.868780187908749</v>
       </c>
       <c r="E17">
-        <v>15.80249856890904</v>
+        <v>9.455345019053867</v>
       </c>
       <c r="F17">
-        <v>36.98504661312334</v>
+        <v>25.26870338628282</v>
       </c>
       <c r="G17">
-        <v>3.676077772190752</v>
+        <v>2.096624336157019</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.72320077744769</v>
+        <v>7.136073494094558</v>
       </c>
       <c r="K17">
-        <v>10.23083797737526</v>
+        <v>14.39803803189039</v>
       </c>
       <c r="L17">
-        <v>9.065108081557836</v>
+        <v>6.475953539086708</v>
       </c>
       <c r="M17">
-        <v>15.7839677094173</v>
+        <v>11.03855674245494</v>
       </c>
       <c r="N17">
-        <v>21.90727291993073</v>
+        <v>13.75234871018976</v>
       </c>
       <c r="O17">
-        <v>27.78017669181833</v>
+        <v>18.33122188756035</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.03606184709356</v>
+        <v>14.52669529576736</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.474449993360947</v>
+        <v>5.855051424565612</v>
       </c>
       <c r="E18">
-        <v>15.80975653802691</v>
+        <v>9.471393508051003</v>
       </c>
       <c r="F18">
-        <v>36.99613718532505</v>
+        <v>25.20240553719203</v>
       </c>
       <c r="G18">
-        <v>3.676494033711498</v>
+        <v>2.097782788967943</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.72706301453667</v>
+        <v>7.147429646132508</v>
       </c>
       <c r="K18">
-        <v>10.17720461690538</v>
+        <v>14.23786530157341</v>
       </c>
       <c r="L18">
-        <v>9.058626081668018</v>
+        <v>6.426167618434457</v>
       </c>
       <c r="M18">
-        <v>15.77653253944686</v>
+        <v>10.96624477695797</v>
       </c>
       <c r="N18">
-        <v>21.92172669523532</v>
+        <v>13.80422593584048</v>
       </c>
       <c r="O18">
-        <v>27.79174051519494</v>
+        <v>18.30166602619779</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.02809863544267</v>
+        <v>14.48086894640313</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.474893134346653</v>
+        <v>5.850431205519446</v>
       </c>
       <c r="E19">
-        <v>15.81223445493189</v>
+        <v>9.476868187494334</v>
       </c>
       <c r="F19">
-        <v>37.00000973794158</v>
+        <v>25.1802678570373</v>
       </c>
       <c r="G19">
-        <v>3.676635977459942</v>
+        <v>2.098176401925745</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.72837992499054</v>
+        <v>7.151290071390822</v>
       </c>
       <c r="K19">
-        <v>10.1590022781608</v>
+        <v>14.1832431950812</v>
       </c>
       <c r="L19">
-        <v>9.056447007422793</v>
+        <v>6.409255825047534</v>
       </c>
       <c r="M19">
-        <v>15.77404702385078</v>
+        <v>10.94171984245475</v>
       </c>
       <c r="N19">
-        <v>21.92665030370364</v>
+        <v>13.821829947529</v>
       </c>
       <c r="O19">
-        <v>27.79573906965793</v>
+        <v>18.29190306024587</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.06409297358695</v>
+        <v>14.68636020334624</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.472964682275911</v>
+        <v>5.871334387399146</v>
       </c>
       <c r="E20">
-        <v>15.80116501140179</v>
+        <v>9.452394280512914</v>
       </c>
       <c r="F20">
-        <v>36.98304980005709</v>
+        <v>25.2811210993901</v>
       </c>
       <c r="G20">
-        <v>3.676001208474283</v>
+        <v>2.096410584117566</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.72249034262416</v>
+        <v>7.133979031515982</v>
       </c>
       <c r="K20">
-        <v>10.24074344233777</v>
+        <v>14.42749699535088</v>
       </c>
       <c r="L20">
-        <v>9.066315146008741</v>
+        <v>6.485141288175946</v>
       </c>
       <c r="M20">
-        <v>15.78535891332861</v>
+        <v>11.05191991982756</v>
       </c>
       <c r="N20">
-        <v>21.90461200110822</v>
+        <v>13.7427658656268</v>
       </c>
       <c r="O20">
-        <v>27.77807603266742</v>
+        <v>18.336808555704</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.18773323679596</v>
+        <v>15.36353500383652</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.467632893412631</v>
+        <v>5.943499316599532</v>
       </c>
       <c r="E21">
-        <v>15.76539598213057</v>
+        <v>9.373032790513527</v>
       </c>
       <c r="F21">
-        <v>36.93423976473856</v>
+        <v>25.64174453879498</v>
       </c>
       <c r="G21">
-        <v>3.673938179376948</v>
+        <v>2.090571086510868</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.70334223935059</v>
+        <v>7.076876191092456</v>
       </c>
       <c r="K21">
-        <v>10.51213113708858</v>
+        <v>15.22101916357897</v>
       </c>
       <c r="L21">
-        <v>9.100540534674508</v>
+        <v>6.736086904332089</v>
       </c>
       <c r="M21">
-        <v>15.82556391499388</v>
+        <v>11.41900558915514</v>
       </c>
       <c r="N21">
-        <v>21.8326347760852</v>
+        <v>13.47973612894407</v>
       </c>
       <c r="O21">
-        <v>27.72452413067904</v>
+        <v>18.50501238641897</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.27045840913245</v>
+        <v>15.79576641535714</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.465000107812029</v>
+        <v>5.992077654699636</v>
       </c>
       <c r="E22">
-        <v>15.74307597230452</v>
+        <v>9.32332746023725</v>
       </c>
       <c r="F22">
-        <v>36.90843103438819</v>
+        <v>25.89391295811361</v>
       </c>
       <c r="G22">
-        <v>3.672641605452494</v>
+        <v>2.086821038892938</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.69130311984241</v>
+        <v>7.040330203127068</v>
       </c>
       <c r="K22">
-        <v>10.68678185764669</v>
+        <v>15.71944999699653</v>
       </c>
       <c r="L22">
-        <v>9.123685986636938</v>
+        <v>6.896900708310562</v>
       </c>
       <c r="M22">
-        <v>15.85345360065245</v>
+        <v>11.65622797920723</v>
       </c>
       <c r="N22">
-        <v>21.78712910085887</v>
+        <v>13.30963679280353</v>
       </c>
       <c r="O22">
-        <v>27.69384558192089</v>
+        <v>18.62825302691216</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.226137096441</v>
+        <v>15.56604983605897</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.466327556333136</v>
+        <v>5.966022779974159</v>
       </c>
       <c r="E23">
-        <v>15.75489206619297</v>
+        <v>9.349656623553196</v>
       </c>
       <c r="F23">
-        <v>36.9216483308961</v>
+        <v>25.75780251211257</v>
       </c>
       <c r="G23">
-        <v>3.673328891638453</v>
+        <v>2.08881664683828</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.69768525157816</v>
+        <v>7.059765699162798</v>
       </c>
       <c r="K23">
-        <v>10.5938342622224</v>
+        <v>15.45527079146708</v>
       </c>
       <c r="L23">
-        <v>9.111263026947929</v>
+        <v>6.811375356038783</v>
       </c>
       <c r="M23">
-        <v>15.83842238378576</v>
+        <v>11.52988372518322</v>
       </c>
       <c r="N23">
-        <v>21.81127621481048</v>
+        <v>13.40026624122891</v>
       </c>
       <c r="O23">
-        <v>27.70982380372863</v>
+        <v>18.56123444183937</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.0621059210497</v>
+        <v>14.6751241324374</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.473066257998374</v>
+        <v>5.870179146066992</v>
       </c>
       <c r="E24">
-        <v>15.80176753134224</v>
+        <v>9.453727542638163</v>
       </c>
       <c r="F24">
-        <v>36.9839504138625</v>
+        <v>25.27550150599849</v>
       </c>
       <c r="G24">
-        <v>3.676035804150178</v>
+        <v>2.096507195036769</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.72281135773481</v>
+        <v>7.13492564382959</v>
       </c>
       <c r="K24">
-        <v>10.23626606558229</v>
+        <v>14.41418589897108</v>
       </c>
       <c r="L24">
-        <v>9.065769159964633</v>
+        <v>6.480988597235379</v>
       </c>
       <c r="M24">
-        <v>15.78472938438715</v>
+        <v>11.04587931184326</v>
       </c>
       <c r="N24">
-        <v>21.90581444232068</v>
+        <v>13.74709749719264</v>
       </c>
       <c r="O24">
-        <v>27.77902421501268</v>
+        <v>18.3342784012072</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.89402819343861</v>
+        <v>13.67298214689201</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.484014198569607</v>
+        <v>5.773036493695971</v>
       </c>
       <c r="E25">
-        <v>15.8568905203319</v>
+        <v>9.575113019277497</v>
       </c>
       <c r="F25">
-        <v>37.07730168888366</v>
+        <v>24.82428901732069</v>
       </c>
       <c r="G25">
-        <v>3.679179198057293</v>
+        <v>2.105108226354357</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.75196618504877</v>
+        <v>7.219423368972302</v>
       </c>
       <c r="K25">
-        <v>9.840858527110145</v>
+        <v>13.20436711936004</v>
       </c>
       <c r="L25">
-        <v>9.020161977183335</v>
+        <v>6.112260885977188</v>
       </c>
       <c r="M25">
-        <v>15.73390009090563</v>
+        <v>10.51445573220483</v>
       </c>
       <c r="N25">
-        <v>22.01442173764501</v>
+        <v>14.12987249360277</v>
       </c>
       <c r="O25">
-        <v>27.87219869138022</v>
+        <v>18.14400942905511</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.90414111004897</v>
+        <v>20.17982338163863</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.707027788936557</v>
+        <v>7.257727157852448</v>
       </c>
       <c r="E2">
-        <v>9.672207860689042</v>
+        <v>14.81197290009887</v>
       </c>
       <c r="F2">
-        <v>24.54908579965406</v>
+        <v>16.68376115585547</v>
       </c>
       <c r="G2">
-        <v>2.11172625188138</v>
+        <v>20.38524152767003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.410388809761264</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.320552260641002</v>
       </c>
       <c r="J2">
-        <v>7.284706693589952</v>
+        <v>7.855904959770293</v>
       </c>
       <c r="K2">
-        <v>12.23892609368727</v>
+        <v>16.54692730935212</v>
       </c>
       <c r="L2">
-        <v>5.831887934875293</v>
+        <v>9.97703114448575</v>
       </c>
       <c r="M2">
-        <v>10.11781712628679</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.42015144293137</v>
+        <v>11.9151597885671</v>
       </c>
       <c r="O2">
-        <v>18.04772690304276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.2459692087477</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.80076855890992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.3666819690641</v>
+        <v>18.89886870969294</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.665799094051219</v>
+        <v>7.254680274553486</v>
       </c>
       <c r="E3">
-        <v>9.742770531473271</v>
+        <v>14.44947005139634</v>
       </c>
       <c r="F3">
-        <v>24.39675273695646</v>
+        <v>16.62355170481693</v>
       </c>
       <c r="G3">
-        <v>2.116399633291018</v>
+        <v>19.60936771403836</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.608795930219319</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.4480512808289</v>
       </c>
       <c r="J3">
-        <v>7.330922449983383</v>
+        <v>7.842572495997802</v>
       </c>
       <c r="K3">
-        <v>11.53840032695351</v>
+        <v>16.66832508803623</v>
       </c>
       <c r="L3">
-        <v>5.637419146088142</v>
+        <v>9.730161965308472</v>
       </c>
       <c r="M3">
-        <v>9.847240951387267</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.62260487718722</v>
+        <v>11.19119897001126</v>
       </c>
       <c r="O3">
-        <v>18.00815085496196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.3050204338315</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.61758400549496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.02978591260997</v>
+        <v>18.06469486311434</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.642231284495437</v>
+        <v>7.254274641387997</v>
       </c>
       <c r="E4">
-        <v>9.788428933815918</v>
+        <v>14.2246344169372</v>
       </c>
       <c r="F4">
-        <v>24.31954631128474</v>
+        <v>16.60017239924746</v>
       </c>
       <c r="G4">
-        <v>2.119365218578726</v>
+        <v>19.13580933569037</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.734427162045191</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.529086857612246</v>
       </c>
       <c r="J4">
-        <v>7.360290788829486</v>
+        <v>7.83899425982124</v>
       </c>
       <c r="K4">
-        <v>11.08570351321863</v>
+        <v>16.75517845114232</v>
       </c>
       <c r="L4">
-        <v>5.516239851126674</v>
+        <v>9.576528352224988</v>
       </c>
       <c r="M4">
-        <v>9.680815683548758</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.74988044922124</v>
+        <v>10.7252731800641</v>
       </c>
       <c r="O4">
-        <v>17.99594042902865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.69788681569222</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.51345609689999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.89097169184207</v>
+        <v>17.71142460534114</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.633068741455125</v>
+        <v>7.255008187239786</v>
       </c>
       <c r="E5">
-        <v>9.807619482131283</v>
+        <v>14.13896037756524</v>
       </c>
       <c r="F5">
-        <v>24.29210458093585</v>
+        <v>16.58590293552223</v>
       </c>
       <c r="G5">
-        <v>2.120598337350196</v>
+        <v>18.93247404278001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.786597895550211</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.564978213892214</v>
       </c>
       <c r="J5">
-        <v>7.372510584506417</v>
+        <v>7.836746823779096</v>
       </c>
       <c r="K5">
-        <v>10.89560326798331</v>
+        <v>16.80008373791492</v>
       </c>
       <c r="L5">
-        <v>5.466482760283692</v>
+        <v>9.51717947040069</v>
       </c>
       <c r="M5">
-        <v>9.613016636323723</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.80251240737191</v>
+        <v>10.53965717485696</v>
       </c>
       <c r="O5">
-        <v>17.99391712811425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.44869121218906</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.46830646404259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.86783604052758</v>
+        <v>17.65037156709381</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.631574029461195</v>
+        <v>7.255816421695426</v>
       </c>
       <c r="E6">
-        <v>9.81084129411348</v>
+        <v>14.13260224608378</v>
       </c>
       <c r="F6">
-        <v>24.28778811019068</v>
+        <v>16.57388879662048</v>
       </c>
       <c r="G6">
-        <v>2.120804595568305</v>
+        <v>18.88485252141516</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.795319719210348</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.573750907184455</v>
       </c>
       <c r="J6">
-        <v>7.37455496485242</v>
+        <v>7.834097797558496</v>
       </c>
       <c r="K6">
-        <v>10.86369956930138</v>
+        <v>16.8157647881587</v>
       </c>
       <c r="L6">
-        <v>5.458200131438071</v>
+        <v>9.511863292593846</v>
       </c>
       <c r="M6">
-        <v>9.601762715443888</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.81129873795604</v>
+        <v>10.52023243599211</v>
       </c>
       <c r="O6">
-        <v>17.99375688889104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.4136000730877</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.45505372521927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.02791970391089</v>
+        <v>18.0555143641428</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.642105924947079</v>
+        <v>7.256156573441753</v>
       </c>
       <c r="E7">
-        <v>9.788685380812439</v>
+        <v>14.24499707302777</v>
       </c>
       <c r="F7">
-        <v>24.31916006099937</v>
+        <v>16.57318699006845</v>
       </c>
       <c r="G7">
-        <v>2.119381748583987</v>
+        <v>19.09557865242239</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.735103299389838</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.536858460183439</v>
       </c>
       <c r="J7">
-        <v>7.360454565692367</v>
+        <v>7.832585026999118</v>
       </c>
       <c r="K7">
-        <v>11.08316243789552</v>
+        <v>16.7780975235737</v>
       </c>
       <c r="L7">
-        <v>5.51557023244308</v>
+        <v>9.588175016116605</v>
       </c>
       <c r="M7">
-        <v>9.679901111752152</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.7505871346552</v>
+        <v>10.75408975513448</v>
       </c>
       <c r="O7">
-        <v>17.99590130441323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.71249695626692</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.49688595051882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.72037283827685</v>
+        <v>19.7425501547772</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.692451152853961</v>
+        <v>7.25911315831818</v>
       </c>
       <c r="E8">
-        <v>9.696052346030866</v>
+        <v>14.71573235707997</v>
       </c>
       <c r="F8">
-        <v>24.49312382701827</v>
+        <v>16.62519614246768</v>
       </c>
       <c r="G8">
-        <v>2.11331796334696</v>
+        <v>20.07034301194641</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.477887515392729</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.373025939891297</v>
       </c>
       <c r="J8">
-        <v>7.300437647378382</v>
+        <v>7.842014735602644</v>
       </c>
       <c r="K8">
-        <v>12.00209611913113</v>
+        <v>16.61744109410479</v>
       </c>
       <c r="L8">
-        <v>5.765244017210509</v>
+        <v>9.908711215351715</v>
       </c>
       <c r="M8">
-        <v>10.02463755312822</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.48935345066826</v>
+        <v>11.70847474077651</v>
       </c>
       <c r="O8">
-        <v>18.03152001366345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.94965231545188</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.71531249191836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.0157009995513</v>
+        <v>22.67998376904784</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.804911711568309</v>
+        <v>7.272962027850483</v>
       </c>
       <c r="E9">
-        <v>9.533016953090941</v>
+        <v>15.5794537545743</v>
       </c>
       <c r="F9">
-        <v>24.96725367412577</v>
+        <v>16.88676946581214</v>
       </c>
       <c r="G9">
-        <v>2.102168104154368</v>
+        <v>22.05365601859386</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.003181013243147</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.06150828604516</v>
       </c>
       <c r="J9">
-        <v>7.190491567115425</v>
+        <v>7.909697144171377</v>
       </c>
       <c r="K9">
-        <v>13.62351300232903</v>
+        <v>16.36202894968826</v>
       </c>
       <c r="L9">
-        <v>6.237975888710314</v>
+        <v>10.49672007199196</v>
       </c>
       <c r="M9">
-        <v>10.69449189214583</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.99968645430091</v>
+        <v>13.35804353218004</v>
       </c>
       <c r="O9">
-        <v>18.20108308908749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.11039499036517</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.2374841016138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.92035131437457</v>
+        <v>24.61251515403084</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.895709887140534</v>
+        <v>7.312474608489941</v>
       </c>
       <c r="E10">
-        <v>9.424754914235987</v>
+        <v>16.33628323157165</v>
       </c>
       <c r="F10">
-        <v>25.40087924203554</v>
+        <v>17.00409568181897</v>
       </c>
       <c r="G10">
-        <v>2.094396849340511</v>
+        <v>23.31487346726331</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.698335787336964</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.851840465983873</v>
       </c>
       <c r="J10">
-        <v>7.114261686798229</v>
+        <v>7.949008668479562</v>
       </c>
       <c r="K10">
-        <v>14.70358196959965</v>
+        <v>16.34585432511025</v>
       </c>
       <c r="L10">
-        <v>6.571706289312182</v>
+        <v>10.9957146297848</v>
       </c>
       <c r="M10">
-        <v>11.17809860722147</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.65232645961115</v>
+        <v>14.43621270789007</v>
       </c>
       <c r="O10">
-        <v>18.39144837889827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.53675512626083</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.57526091838007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.32024877519109</v>
+        <v>25.4848505523098</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.938740139634289</v>
+        <v>7.552747254952134</v>
       </c>
       <c r="E11">
-        <v>9.378049831463002</v>
+        <v>17.89275329653255</v>
       </c>
       <c r="F11">
-        <v>25.61742116521787</v>
+        <v>15.8492487824217</v>
       </c>
       <c r="G11">
-        <v>2.090945539320276</v>
+        <v>22.37055467444039</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.697559304916491</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.79136156769598</v>
       </c>
       <c r="J11">
-        <v>7.080530927918876</v>
+        <v>7.679626086328599</v>
       </c>
       <c r="K11">
-        <v>15.17077751177881</v>
+        <v>17.27299828069544</v>
       </c>
       <c r="L11">
-        <v>6.720008244864191</v>
+        <v>11.9231539221278</v>
       </c>
       <c r="M11">
-        <v>11.39536923368316</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.49667180073205</v>
+        <v>14.59895398149338</v>
       </c>
       <c r="O11">
-        <v>18.49334534357719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.99417402034432</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.03182932179081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.46991261171065</v>
+        <v>25.8338157340442</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.95527783832371</v>
+        <v>7.787033102001516</v>
       </c>
       <c r="E12">
-        <v>9.360734109099424</v>
+        <v>19.09908022976224</v>
       </c>
       <c r="F12">
-        <v>25.70224484598767</v>
+        <v>14.86999165047951</v>
       </c>
       <c r="G12">
-        <v>2.089650048637604</v>
+        <v>21.33310902826317</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.092760789374499</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.767882407937774</v>
       </c>
       <c r="J12">
-        <v>7.067890869736739</v>
+        <v>7.446048730547377</v>
       </c>
       <c r="K12">
-        <v>15.34423054641257</v>
+        <v>18.11607666504699</v>
       </c>
       <c r="L12">
-        <v>6.775621566907613</v>
+        <v>12.62908391376654</v>
       </c>
       <c r="M12">
-        <v>11.47718785060481</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.43804094862641</v>
+        <v>14.47590573265696</v>
       </c>
       <c r="O12">
-        <v>18.53420914016657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>20.06274699491265</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.50803872584089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.43775982894675</v>
+        <v>25.80809816929647</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.951705420716795</v>
+        <v>8.027174356550407</v>
       </c>
       <c r="E13">
-        <v>9.364446802483565</v>
+        <v>20.14344911405708</v>
       </c>
       <c r="F13">
-        <v>25.68385019831344</v>
+        <v>13.92124283588865</v>
       </c>
       <c r="G13">
-        <v>2.089928556872052</v>
+        <v>20.07349301245971</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.525881593921777</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.783410161823862</v>
       </c>
       <c r="J13">
-        <v>7.070607264903112</v>
+        <v>7.214474184052388</v>
       </c>
       <c r="K13">
-        <v>15.30702820644955</v>
+        <v>18.95561857327917</v>
       </c>
       <c r="L13">
-        <v>6.763669078054805</v>
+        <v>13.2279358858143</v>
       </c>
       <c r="M13">
-        <v>11.45958803892071</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.45065471972855</v>
+        <v>14.1588331558601</v>
       </c>
       <c r="O13">
-        <v>18.52530588737578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>19.8602371410305</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.934255622125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.33259764247728</v>
+        <v>25.61922491263071</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.940095864129394</v>
+        <v>8.201818998888685</v>
       </c>
       <c r="E14">
-        <v>9.376617802952323</v>
+        <v>20.82022474225021</v>
       </c>
       <c r="F14">
-        <v>25.62434279156238</v>
+        <v>13.26909269948452</v>
       </c>
       <c r="G14">
-        <v>2.090838732787649</v>
+        <v>19.06427120934318</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.539622962188811</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.814122125276917</v>
       </c>
       <c r="J14">
-        <v>7.07948837413988</v>
+        <v>7.051880444075707</v>
       </c>
       <c r="K14">
-        <v>15.18511695439621</v>
+        <v>19.5549278534877</v>
       </c>
       <c r="L14">
-        <v>6.724594726571413</v>
+        <v>13.60947037324976</v>
       </c>
       <c r="M14">
-        <v>11.40211000922819</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.49184211089233</v>
+        <v>13.85174960181928</v>
       </c>
       <c r="O14">
-        <v>18.49666115141578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>19.59675904195876</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.50292498661644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.26794989021105</v>
+        <v>25.49100149773138</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.933016177527309</v>
+        <v>8.242051608914508</v>
       </c>
       <c r="E15">
-        <v>9.38412128719521</v>
+        <v>20.95288275571097</v>
       </c>
       <c r="F15">
-        <v>25.58826196854143</v>
+        <v>13.11191171827906</v>
       </c>
       <c r="G15">
-        <v>2.091397713496721</v>
+        <v>18.75748705359581</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.775442157432359</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.833795538490396</v>
       </c>
       <c r="J15">
-        <v>7.084945544165808</v>
+        <v>7.01160191955222</v>
       </c>
       <c r="K15">
-        <v>15.10999201975147</v>
+        <v>19.70213812372734</v>
       </c>
       <c r="L15">
-        <v>6.700588436918169</v>
+        <v>13.68092468214084</v>
       </c>
       <c r="M15">
-        <v>11.36684171835323</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.51711039448287</v>
+        <v>13.74397130134834</v>
       </c>
       <c r="O15">
-        <v>18.47941429192005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>19.47968398669293</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.38340559522432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.89397439340068</v>
+        <v>24.70750765468951</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.892932054669063</v>
+        <v>8.169072526300706</v>
       </c>
       <c r="E16">
-        <v>9.427858777970057</v>
+        <v>20.47285014858636</v>
       </c>
       <c r="F16">
-        <v>25.3871202406994</v>
+        <v>13.22685145768728</v>
       </c>
       <c r="G16">
-        <v>2.094624036503291</v>
+        <v>18.34983213057485</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.575971184531353</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.926398186658733</v>
       </c>
       <c r="J16">
-        <v>7.116484858568511</v>
+        <v>7.03352505773517</v>
       </c>
       <c r="K16">
-        <v>14.67256441799909</v>
+        <v>19.50814743401993</v>
       </c>
       <c r="L16">
-        <v>6.561940138668993</v>
+        <v>13.37700780113376</v>
       </c>
       <c r="M16">
-        <v>11.16383889539032</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.66254406914789</v>
+        <v>13.35750575612212</v>
       </c>
       <c r="O16">
-        <v>18.3851037330727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>18.93318688160142</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.32035960462657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.66149922544613</v>
+        <v>24.19768710464924</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.868780187908749</v>
+        <v>8.017864706253992</v>
       </c>
       <c r="E17">
-        <v>9.455345019053867</v>
+        <v>19.7232477000938</v>
       </c>
       <c r="F17">
-        <v>25.26870338628282</v>
+        <v>13.66103207280029</v>
       </c>
       <c r="G17">
-        <v>2.096624336157019</v>
+        <v>18.60330671893185</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.85452735277899</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.981463997570864</v>
       </c>
       <c r="J17">
-        <v>7.136073494094558</v>
+        <v>7.137924966630958</v>
       </c>
       <c r="K17">
-        <v>14.39803803189039</v>
+        <v>19.04003745811223</v>
       </c>
       <c r="L17">
-        <v>6.475953539086708</v>
+        <v>12.92903006159373</v>
       </c>
       <c r="M17">
-        <v>11.03855674245494</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.75234871018976</v>
+        <v>13.22803028887231</v>
       </c>
       <c r="O17">
-        <v>18.33122188756035</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>18.65293745319264</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.50844450561335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.52669529576736</v>
+        <v>23.87975063978629</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.855051424565612</v>
+        <v>7.794588908192167</v>
       </c>
       <c r="E18">
-        <v>9.471393508051003</v>
+        <v>18.66370639334181</v>
       </c>
       <c r="F18">
-        <v>25.20240553719203</v>
+        <v>14.43609411840845</v>
       </c>
       <c r="G18">
-        <v>2.097782788967943</v>
+        <v>19.47183065966563</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.631491527616893</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.000910209232245</v>
       </c>
       <c r="J18">
-        <v>7.147429646132508</v>
+        <v>7.327016065839871</v>
       </c>
       <c r="K18">
-        <v>14.23786530157341</v>
+        <v>18.28504439982423</v>
       </c>
       <c r="L18">
-        <v>6.426167618434457</v>
+        <v>12.31057455017795</v>
       </c>
       <c r="M18">
-        <v>10.96624477695797</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.80422593584048</v>
+        <v>13.2891656092659</v>
       </c>
       <c r="O18">
-        <v>18.30166602619779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>18.56332551203758</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.9384632973186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.48086894640313</v>
+        <v>23.73733207670315</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.850431205519446</v>
+        <v>7.566502410704888</v>
       </c>
       <c r="E19">
-        <v>9.476868187494334</v>
+        <v>17.53634615053477</v>
       </c>
       <c r="F19">
-        <v>25.1802678570373</v>
+        <v>15.39018574156555</v>
       </c>
       <c r="G19">
-        <v>2.098176401925745</v>
+        <v>20.68857739198224</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.202679056128998</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.002546224662334</v>
       </c>
       <c r="J19">
-        <v>7.151290071390822</v>
+        <v>7.557754745175468</v>
       </c>
       <c r="K19">
-        <v>14.1832431950812</v>
+        <v>17.48295228522362</v>
       </c>
       <c r="L19">
-        <v>6.409255825047534</v>
+        <v>11.65902641217181</v>
       </c>
       <c r="M19">
-        <v>10.94171984245475</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.821829947529</v>
+        <v>13.54493657956465</v>
       </c>
       <c r="O19">
-        <v>18.29190306024587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.6586364532475</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.49741548594203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.68636020334624</v>
+        <v>24.10985656853451</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.871334387399146</v>
+        <v>7.310372325252082</v>
       </c>
       <c r="E20">
-        <v>9.452394280512914</v>
+        <v>16.20966639400741</v>
       </c>
       <c r="F20">
-        <v>25.2811210993901</v>
+        <v>16.88375716565918</v>
       </c>
       <c r="G20">
-        <v>2.096410584117566</v>
+        <v>22.88063343149938</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.77541972390736</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.929183462096767</v>
       </c>
       <c r="J20">
-        <v>7.133979031515982</v>
+        <v>7.916711321105681</v>
       </c>
       <c r="K20">
-        <v>14.42749699535088</v>
+        <v>16.43295169823436</v>
       </c>
       <c r="L20">
-        <v>6.485141288175946</v>
+        <v>10.90673288798379</v>
       </c>
       <c r="M20">
-        <v>11.05191991982756</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.7427658656268</v>
+        <v>14.23464882088177</v>
       </c>
       <c r="O20">
-        <v>18.336808555704</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.21454709786451</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.43553527379054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.36353500383652</v>
+        <v>25.51472555634266</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.943499316599532</v>
+        <v>7.310051267006886</v>
       </c>
       <c r="E21">
-        <v>9.373032790513527</v>
+        <v>16.56815124476979</v>
       </c>
       <c r="F21">
-        <v>25.64174453879498</v>
+        <v>17.2291840542913</v>
       </c>
       <c r="G21">
-        <v>2.090571086510868</v>
+        <v>24.13338627469004</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.613133224183761</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.763358683998637</v>
       </c>
       <c r="J21">
-        <v>7.076876191092456</v>
+        <v>8.009921470129896</v>
       </c>
       <c r="K21">
-        <v>15.22101916357897</v>
+        <v>16.29205799935225</v>
       </c>
       <c r="L21">
-        <v>6.736086904332089</v>
+        <v>11.15926901394556</v>
       </c>
       <c r="M21">
-        <v>11.41900558915514</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.47973612894407</v>
+        <v>15.07005009738107</v>
       </c>
       <c r="O21">
-        <v>18.50501238641897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.28237773615862</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.84025600466894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.79576641535714</v>
+        <v>26.39874396925585</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.992077654699636</v>
+        <v>7.31843746318989</v>
       </c>
       <c r="E22">
-        <v>9.32332746023725</v>
+        <v>16.83912225350728</v>
       </c>
       <c r="F22">
-        <v>25.89391295811361</v>
+        <v>17.43104587856738</v>
       </c>
       <c r="G22">
-        <v>2.086821038892938</v>
+        <v>24.89454757809068</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.7693318365514</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.649082636562376</v>
       </c>
       <c r="J22">
-        <v>7.040330203127068</v>
+        <v>8.066870612057873</v>
       </c>
       <c r="K22">
-        <v>15.71944999699653</v>
+        <v>16.22390322508246</v>
       </c>
       <c r="L22">
-        <v>6.896900708310562</v>
+        <v>11.3448301161375</v>
       </c>
       <c r="M22">
-        <v>11.65622797920723</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.30963679280353</v>
+        <v>15.54701981411612</v>
       </c>
       <c r="O22">
-        <v>18.62825302691216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.92605287658797</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.08880641141558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.56604983605897</v>
+        <v>25.93457971033561</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.966022779974159</v>
+        <v>7.31074221733056</v>
       </c>
       <c r="E23">
-        <v>9.349656623553196</v>
+        <v>16.67113098888266</v>
       </c>
       <c r="F23">
-        <v>25.75780251211257</v>
+        <v>17.35072181517766</v>
       </c>
       <c r="G23">
-        <v>2.08881664683828</v>
+        <v>24.52265247581548</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.685840772802471</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.700941308059433</v>
       </c>
       <c r="J23">
-        <v>7.059765699162798</v>
+        <v>8.04296229324839</v>
       </c>
       <c r="K23">
-        <v>15.45527079146708</v>
+        <v>16.22612842541792</v>
       </c>
       <c r="L23">
-        <v>6.811375356038783</v>
+        <v>11.23231665297769</v>
       </c>
       <c r="M23">
-        <v>11.52988372518322</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.40026624122891</v>
+        <v>15.26700330682992</v>
       </c>
       <c r="O23">
-        <v>18.56123444183937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.56961148713248</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.97176307885712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6751241324374</v>
+        <v>24.08797816256337</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.870179146066992</v>
+        <v>7.28946539904395</v>
       </c>
       <c r="E24">
-        <v>9.453727542638163</v>
+        <v>16.06299324503429</v>
       </c>
       <c r="F24">
-        <v>25.27550150599849</v>
+        <v>17.03249413737675</v>
       </c>
       <c r="G24">
-        <v>2.096507195036769</v>
+        <v>23.05276863791617</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.76104291311014</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.915707855351866</v>
       </c>
       <c r="J24">
-        <v>7.13492564382959</v>
+        <v>7.951954421554968</v>
       </c>
       <c r="K24">
-        <v>14.41418589897108</v>
+        <v>16.31592980239955</v>
       </c>
       <c r="L24">
-        <v>6.480988597235379</v>
+        <v>10.82089265792874</v>
       </c>
       <c r="M24">
-        <v>11.04587931184326</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.74709749719264</v>
+        <v>14.20851585310498</v>
       </c>
       <c r="O24">
-        <v>18.3342784012072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.18813371027171</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.51777563799722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.67298214689201</v>
+        <v>21.91890187340628</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.773036493695971</v>
+        <v>7.272110173234002</v>
       </c>
       <c r="E25">
-        <v>9.575113019277497</v>
+        <v>15.38646653984033</v>
       </c>
       <c r="F25">
-        <v>24.82428901732069</v>
+        <v>16.75680769540102</v>
       </c>
       <c r="G25">
-        <v>2.105108226354357</v>
+        <v>21.45858405423684</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.128205998687065</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.156225726765552</v>
       </c>
       <c r="J25">
-        <v>7.219423368972302</v>
+        <v>7.876002116406472</v>
       </c>
       <c r="K25">
-        <v>13.20436711936004</v>
+        <v>16.46545651440466</v>
       </c>
       <c r="L25">
-        <v>6.112260885977188</v>
+        <v>10.36189608578437</v>
       </c>
       <c r="M25">
-        <v>10.51445573220483</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.12987249360277</v>
+        <v>12.97809625520725</v>
       </c>
       <c r="O25">
-        <v>18.14400942905511</v>
+        <v>17.57872034151264</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.06221666669519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.17982338163863</v>
+        <v>20.21884385624654</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.257727157852448</v>
+        <v>7.001497265607856</v>
       </c>
       <c r="E2">
-        <v>14.81197290009887</v>
+        <v>13.98310511734462</v>
       </c>
       <c r="F2">
-        <v>16.68376115585547</v>
+        <v>17.23629034029356</v>
       </c>
       <c r="G2">
-        <v>20.38524152767003</v>
+        <v>20.63576883683999</v>
       </c>
       <c r="H2">
-        <v>2.410388809761264</v>
+        <v>2.273749871402503</v>
       </c>
       <c r="I2">
-        <v>4.320552260641002</v>
+        <v>4.012193496340527</v>
       </c>
       <c r="J2">
-        <v>7.855904959770293</v>
+        <v>8.681733029839341</v>
       </c>
       <c r="K2">
-        <v>16.54692730935212</v>
+        <v>15.44786343760068</v>
       </c>
       <c r="L2">
-        <v>9.97703114448575</v>
+        <v>11.41450058898617</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.33530831382668</v>
       </c>
       <c r="N2">
-        <v>11.9151597885671</v>
+        <v>9.508246744458718</v>
       </c>
       <c r="O2">
-        <v>16.2459692087477</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>11.33342458563047</v>
       </c>
       <c r="Q2">
-        <v>12.80076855890992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.91429029085978</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.18493901842609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.89886870969294</v>
+        <v>18.9238432610083</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.254680274553486</v>
+        <v>7.003432747322334</v>
       </c>
       <c r="E3">
-        <v>14.44947005139634</v>
+        <v>13.63429041672383</v>
       </c>
       <c r="F3">
-        <v>16.62355170481693</v>
+        <v>17.12475291162531</v>
       </c>
       <c r="G3">
-        <v>19.60936771403836</v>
+        <v>19.78643756399844</v>
       </c>
       <c r="H3">
-        <v>2.608795930219319</v>
+        <v>2.459987311848814</v>
       </c>
       <c r="I3">
-        <v>4.4480512808289</v>
+        <v>4.121997488190411</v>
       </c>
       <c r="J3">
-        <v>7.842572495997802</v>
+        <v>8.631758361153793</v>
       </c>
       <c r="K3">
-        <v>16.66832508803623</v>
+        <v>15.58133730197667</v>
       </c>
       <c r="L3">
-        <v>9.730161965308472</v>
+        <v>11.38233324117675</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.59434107150855</v>
       </c>
       <c r="N3">
-        <v>11.19119897001126</v>
+        <v>9.268593887822087</v>
       </c>
       <c r="O3">
-        <v>15.3050204338315</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>10.63070757621157</v>
       </c>
       <c r="Q3">
-        <v>12.61758400549496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.97554147757382</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.97601058905492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.06469486311434</v>
+        <v>18.07949274000634</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.254274641387997</v>
+        <v>7.00624637374079</v>
       </c>
       <c r="E4">
-        <v>14.2246344169372</v>
+        <v>13.41883227654515</v>
       </c>
       <c r="F4">
-        <v>16.60017239924746</v>
+        <v>17.06703865675152</v>
       </c>
       <c r="G4">
-        <v>19.13580933569037</v>
+        <v>19.26515546269045</v>
       </c>
       <c r="H4">
-        <v>2.734427162045191</v>
+        <v>2.577958135594799</v>
       </c>
       <c r="I4">
-        <v>4.529086857612246</v>
+        <v>4.192049562854246</v>
       </c>
       <c r="J4">
-        <v>7.83899425982124</v>
+        <v>8.603001637614076</v>
       </c>
       <c r="K4">
-        <v>16.75517845114232</v>
+        <v>15.67517574260047</v>
       </c>
       <c r="L4">
-        <v>9.576528352224988</v>
+        <v>11.3857280859077</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.76101151481672</v>
       </c>
       <c r="N4">
-        <v>10.7252731800641</v>
+        <v>9.119917155576672</v>
       </c>
       <c r="O4">
-        <v>14.69788681569222</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10.17914783365329</v>
       </c>
       <c r="Q4">
-        <v>12.51345609689999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.36960195135803</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.85402798122016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.71142460534114</v>
+        <v>17.72181127647363</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.255008187239786</v>
+        <v>7.008072063762788</v>
       </c>
       <c r="E5">
-        <v>14.13896037756524</v>
+        <v>13.33601899965569</v>
       </c>
       <c r="F5">
-        <v>16.58590293552223</v>
+        <v>17.03884321608175</v>
       </c>
       <c r="G5">
-        <v>18.93247404278001</v>
+        <v>19.0428160292779</v>
       </c>
       <c r="H5">
-        <v>2.786597895550211</v>
+        <v>2.627004952228958</v>
       </c>
       <c r="I5">
-        <v>4.564978213892214</v>
+        <v>4.223884845978274</v>
       </c>
       <c r="J5">
-        <v>7.836746823779096</v>
+        <v>8.590121050028236</v>
       </c>
       <c r="K5">
-        <v>16.80008373791492</v>
+        <v>15.7204318439874</v>
       </c>
       <c r="L5">
-        <v>9.51717947040069</v>
+        <v>11.39370168361259</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.83602873899418</v>
       </c>
       <c r="N5">
-        <v>10.53965717485696</v>
+        <v>9.062045254391956</v>
       </c>
       <c r="O5">
-        <v>14.44869121218906</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>9.999052076080686</v>
       </c>
       <c r="Q5">
-        <v>12.46830646404259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.12021121804075</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.80162940327251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.65037156709381</v>
+        <v>17.66018722315653</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.255816421695426</v>
+        <v>7.008744615388039</v>
       </c>
       <c r="E6">
-        <v>14.13260224608378</v>
+        <v>13.3286570159103</v>
       </c>
       <c r="F6">
-        <v>16.57388879662048</v>
+        <v>17.02538296792731</v>
       </c>
       <c r="G6">
-        <v>18.88485252141516</v>
+        <v>18.99333456862646</v>
       </c>
       <c r="H6">
-        <v>2.795319719210348</v>
+        <v>2.635262532892358</v>
       </c>
       <c r="I6">
-        <v>4.573750907184455</v>
+        <v>4.232572195031973</v>
       </c>
       <c r="J6">
-        <v>7.834097797558496</v>
+        <v>8.58600319175039</v>
       </c>
       <c r="K6">
-        <v>16.8157647881587</v>
+        <v>15.73322354533901</v>
       </c>
       <c r="L6">
-        <v>9.511863292593846</v>
+        <v>11.39644294044304</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.85498219499669</v>
       </c>
       <c r="N6">
-        <v>10.52023243599211</v>
+        <v>9.05614483157448</v>
       </c>
       <c r="O6">
-        <v>14.4136000730877</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9.97970388613559</v>
       </c>
       <c r="Q6">
-        <v>12.45505372521927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.08428664256226</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.78778697973357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.0555143641428</v>
+        <v>18.0712589071468</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.256156573441753</v>
+        <v>7.00573919480163</v>
       </c>
       <c r="E7">
-        <v>14.24499707302777</v>
+        <v>13.43091378338994</v>
       </c>
       <c r="F7">
-        <v>16.57318699006845</v>
+        <v>17.02981854999791</v>
       </c>
       <c r="G7">
-        <v>19.09557865242239</v>
+        <v>19.32659430417812</v>
       </c>
       <c r="H7">
-        <v>2.735103299389838</v>
+        <v>2.579281449497659</v>
       </c>
       <c r="I7">
-        <v>4.536858460183439</v>
+        <v>4.201524312526762</v>
       </c>
       <c r="J7">
-        <v>7.832585026999118</v>
+        <v>8.553281012078379</v>
       </c>
       <c r="K7">
-        <v>16.7780975235737</v>
+        <v>15.69228674094031</v>
       </c>
       <c r="L7">
-        <v>9.588175016116605</v>
+        <v>11.39055347285078</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.78160810587069</v>
       </c>
       <c r="N7">
-        <v>10.75408975513448</v>
+        <v>9.127854698203519</v>
       </c>
       <c r="O7">
-        <v>14.71249695626692</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>10.20251716438412</v>
       </c>
       <c r="Q7">
-        <v>12.49688595051882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.38042059168554</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.82617226818004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.7425501547772</v>
+        <v>19.77917111722401</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.25911315831818</v>
+        <v>6.998271676230337</v>
       </c>
       <c r="E8">
-        <v>14.71573235707997</v>
+        <v>13.87245449016526</v>
       </c>
       <c r="F8">
-        <v>16.62519614246768</v>
+        <v>17.12278736639712</v>
       </c>
       <c r="G8">
-        <v>20.07034301194641</v>
+        <v>20.61169666519287</v>
       </c>
       <c r="H8">
-        <v>2.477887515392729</v>
+        <v>2.338954619278174</v>
       </c>
       <c r="I8">
-        <v>4.373025939891297</v>
+        <v>4.061208037356179</v>
       </c>
       <c r="J8">
-        <v>7.842014735602644</v>
+        <v>8.512882383478594</v>
       </c>
       <c r="K8">
-        <v>16.61744109410479</v>
+        <v>15.52038402511804</v>
       </c>
       <c r="L8">
-        <v>9.908711215351715</v>
+        <v>11.41283557875568</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.45258991865975</v>
       </c>
       <c r="N8">
-        <v>11.70847474077651</v>
+        <v>9.43475968652707</v>
       </c>
       <c r="O8">
-        <v>15.94965231545188</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>11.12096654695428</v>
       </c>
       <c r="Q8">
-        <v>12.71531249191836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.61100248935148</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.05111997047645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.67998376904784</v>
+        <v>22.74347679085378</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.272962027850483</v>
+        <v>6.999961089502643</v>
       </c>
       <c r="E9">
-        <v>15.5794537545743</v>
+        <v>14.70838605729301</v>
       </c>
       <c r="F9">
-        <v>16.88676946581214</v>
+        <v>17.48219633485907</v>
       </c>
       <c r="G9">
-        <v>22.05365601859386</v>
+        <v>22.80939118514597</v>
       </c>
       <c r="H9">
-        <v>2.003181013243147</v>
+        <v>1.893753592695155</v>
       </c>
       <c r="I9">
-        <v>4.06150828604516</v>
+        <v>3.791684699973304</v>
       </c>
       <c r="J9">
-        <v>7.909697144171377</v>
+        <v>8.617230291956556</v>
       </c>
       <c r="K9">
-        <v>16.36202894968826</v>
+        <v>15.24456826801861</v>
       </c>
       <c r="L9">
-        <v>10.49672007199196</v>
+        <v>11.62140682309691</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.83112210265487</v>
       </c>
       <c r="N9">
-        <v>13.35804353218004</v>
+        <v>10.00895061674054</v>
       </c>
       <c r="O9">
-        <v>18.11039499036517</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>12.72486996565039</v>
       </c>
       <c r="Q9">
-        <v>13.2374841016138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.76671509883351</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.61390658352713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.61251515403084</v>
+        <v>24.69414176848878</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.312474608489941</v>
+        <v>7.016574019787063</v>
       </c>
       <c r="E10">
-        <v>16.33628323157165</v>
+        <v>15.40639856100697</v>
       </c>
       <c r="F10">
-        <v>17.00409568181897</v>
+        <v>17.60131168783778</v>
       </c>
       <c r="G10">
-        <v>23.31487346726331</v>
+        <v>24.69963891281528</v>
       </c>
       <c r="H10">
-        <v>1.698335787336964</v>
+        <v>1.613533458058795</v>
       </c>
       <c r="I10">
-        <v>3.851840465983873</v>
+        <v>3.614409832531403</v>
       </c>
       <c r="J10">
-        <v>7.949008668479562</v>
+        <v>8.433471628833855</v>
       </c>
       <c r="K10">
-        <v>16.34585432511025</v>
+        <v>15.19649161316123</v>
       </c>
       <c r="L10">
-        <v>10.9957146297848</v>
+        <v>11.95172603048904</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.48210603146336</v>
       </c>
       <c r="N10">
-        <v>14.43621270789007</v>
+        <v>10.48110531795048</v>
       </c>
       <c r="O10">
-        <v>19.53675512626083</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>13.74305732691473</v>
       </c>
       <c r="Q10">
-        <v>13.57526091838007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.17086518727115</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.9112268138904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.4848505523098</v>
+        <v>25.59596961108703</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.552747254952134</v>
+        <v>7.175014786273139</v>
       </c>
       <c r="E11">
-        <v>17.89275329653255</v>
+        <v>16.73054217362302</v>
       </c>
       <c r="F11">
-        <v>15.8492487824217</v>
+        <v>16.45660133537834</v>
       </c>
       <c r="G11">
-        <v>22.37055467444039</v>
+        <v>24.99221744061749</v>
       </c>
       <c r="H11">
-        <v>2.697559304916491</v>
+        <v>2.657835758927482</v>
       </c>
       <c r="I11">
-        <v>3.79136156769598</v>
+        <v>3.573380412649738</v>
       </c>
       <c r="J11">
-        <v>7.679626086328599</v>
+        <v>7.738868881047896</v>
       </c>
       <c r="K11">
-        <v>17.27299828069544</v>
+        <v>15.87811526485641</v>
       </c>
       <c r="L11">
-        <v>11.9231539221278</v>
+        <v>12.66121788543111</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.84955740826824</v>
       </c>
       <c r="N11">
-        <v>14.59895398149338</v>
+        <v>11.28920125837685</v>
       </c>
       <c r="O11">
-        <v>19.99417402034432</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>13.71954627834736</v>
       </c>
       <c r="Q11">
-        <v>13.03182932179081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.529085189541</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.308925615692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.8338157340442</v>
+        <v>25.9648964090916</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.787033102001516</v>
+        <v>7.341499956121318</v>
       </c>
       <c r="E12">
-        <v>19.09908022976224</v>
+        <v>17.76030618174643</v>
       </c>
       <c r="F12">
-        <v>14.86999165047951</v>
+        <v>15.52647841398431</v>
       </c>
       <c r="G12">
-        <v>21.33310902826317</v>
+        <v>24.58662942379775</v>
       </c>
       <c r="H12">
-        <v>4.092760789374499</v>
+        <v>4.070729194081977</v>
       </c>
       <c r="I12">
-        <v>3.767882407937774</v>
+        <v>3.556704772277268</v>
       </c>
       <c r="J12">
-        <v>7.446048730547377</v>
+        <v>7.361052686351849</v>
       </c>
       <c r="K12">
-        <v>18.11607666504699</v>
+        <v>16.49955576471301</v>
       </c>
       <c r="L12">
-        <v>12.62908391376654</v>
+        <v>13.21583179842528</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.25790587073316</v>
       </c>
       <c r="N12">
-        <v>14.47590573265696</v>
+        <v>11.90096137765961</v>
       </c>
       <c r="O12">
-        <v>20.06274699491265</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>13.45722473010155</v>
       </c>
       <c r="Q12">
-        <v>12.50803872584089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>19.5249896856264</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.78632465542147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.80809816929647</v>
+        <v>25.95366806762699</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.027174356550407</v>
+        <v>7.530996685471051</v>
       </c>
       <c r="E13">
-        <v>20.14344911405708</v>
+        <v>18.66666444947046</v>
       </c>
       <c r="F13">
-        <v>13.92124283588865</v>
+        <v>14.68924931441598</v>
       </c>
       <c r="G13">
-        <v>20.07349301245971</v>
+        <v>23.34290128118177</v>
       </c>
       <c r="H13">
-        <v>5.525881593921777</v>
+        <v>5.510222863939702</v>
       </c>
       <c r="I13">
-        <v>3.783410161823862</v>
+        <v>3.571906886203127</v>
       </c>
       <c r="J13">
-        <v>7.214474184052388</v>
+        <v>7.249453051150165</v>
       </c>
       <c r="K13">
-        <v>18.95561857327917</v>
+        <v>17.09789645739514</v>
       </c>
       <c r="L13">
-        <v>13.2279358858143</v>
+        <v>13.66066344931008</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.72485023306396</v>
       </c>
       <c r="N13">
-        <v>14.1588331558601</v>
+        <v>12.41939246451129</v>
       </c>
       <c r="O13">
-        <v>19.8602371410305</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>13.0280293161597</v>
       </c>
       <c r="Q13">
-        <v>11.934255622125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>19.26452175481097</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.29336803630883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.61922491263071</v>
+        <v>25.77285671797905</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.201818998888685</v>
+        <v>7.679220233917619</v>
       </c>
       <c r="E14">
-        <v>20.82022474225021</v>
+        <v>19.26183561414743</v>
       </c>
       <c r="F14">
-        <v>13.26909269948452</v>
+        <v>14.13668750504923</v>
       </c>
       <c r="G14">
-        <v>19.06427120934318</v>
+        <v>22.07351787807551</v>
       </c>
       <c r="H14">
-        <v>6.539622962188811</v>
+        <v>6.525922390880721</v>
       </c>
       <c r="I14">
-        <v>3.814122125276917</v>
+        <v>3.599752463579341</v>
       </c>
       <c r="J14">
-        <v>7.051880444075707</v>
+        <v>7.276182726619039</v>
       </c>
       <c r="K14">
-        <v>19.5549278534877</v>
+        <v>17.5130278503211</v>
       </c>
       <c r="L14">
-        <v>13.60947037324976</v>
+        <v>13.92468981349049</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.08665537515711</v>
       </c>
       <c r="N14">
-        <v>13.85174960181928</v>
+        <v>12.74917704201872</v>
       </c>
       <c r="O14">
-        <v>19.59675904195876</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>12.65171272873099</v>
       </c>
       <c r="Q14">
-        <v>11.50292498661644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.96561033892705</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.95297740816243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.49100149773138</v>
+        <v>25.645646133839</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.242051608914508</v>
+        <v>7.717579544755973</v>
       </c>
       <c r="E15">
-        <v>20.95288275571097</v>
+        <v>19.38162107737588</v>
       </c>
       <c r="F15">
-        <v>13.11191171827906</v>
+        <v>14.01318366257669</v>
       </c>
       <c r="G15">
-        <v>18.75748705359581</v>
+        <v>21.58613529943851</v>
       </c>
       <c r="H15">
-        <v>6.775442157432359</v>
+        <v>6.761647309013717</v>
       </c>
       <c r="I15">
-        <v>3.833795538490396</v>
+        <v>3.617906905043749</v>
       </c>
       <c r="J15">
-        <v>7.01160191955222</v>
+        <v>7.327455789793552</v>
       </c>
       <c r="K15">
-        <v>19.70213812372734</v>
+        <v>17.6101548745156</v>
       </c>
       <c r="L15">
-        <v>13.68092468214084</v>
+        <v>13.96520678583381</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.18954165071339</v>
       </c>
       <c r="N15">
-        <v>13.74397130134834</v>
+        <v>12.81037774927448</v>
       </c>
       <c r="O15">
-        <v>19.47968398669293</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>12.53208783426503</v>
       </c>
       <c r="Q15">
-        <v>11.38340559522432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.84202592167892</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.87009494421108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.70750765468951</v>
+        <v>24.85103117463287</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.169072526300706</v>
+        <v>7.690508868033224</v>
       </c>
       <c r="E16">
-        <v>20.47285014858636</v>
+        <v>18.98336663433613</v>
       </c>
       <c r="F16">
-        <v>13.22685145768728</v>
+        <v>14.19635290865383</v>
       </c>
       <c r="G16">
-        <v>18.34983213057485</v>
+        <v>20.18205563908759</v>
       </c>
       <c r="H16">
-        <v>6.575971184531353</v>
+        <v>6.556540203486148</v>
       </c>
       <c r="I16">
-        <v>3.926398186658733</v>
+        <v>3.696051984752152</v>
       </c>
       <c r="J16">
-        <v>7.03352505773517</v>
+        <v>7.733847752231545</v>
       </c>
       <c r="K16">
-        <v>19.50814743401993</v>
+        <v>17.42502347245386</v>
       </c>
       <c r="L16">
-        <v>13.37700780113376</v>
+        <v>13.63002819004664</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.21476363396352</v>
       </c>
       <c r="N16">
-        <v>13.35750575612212</v>
+        <v>12.54019581843937</v>
       </c>
       <c r="O16">
-        <v>18.93318688160142</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>12.20634937615518</v>
       </c>
       <c r="Q16">
-        <v>11.32035960462657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18.3223759583097</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.91566535357406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.19768710464924</v>
+        <v>24.32828795191064</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.017864706253992</v>
+        <v>7.582461527720717</v>
       </c>
       <c r="E17">
-        <v>19.7232477000938</v>
+        <v>18.33525758082207</v>
       </c>
       <c r="F17">
-        <v>13.66103207280029</v>
+        <v>14.61917744979341</v>
       </c>
       <c r="G17">
-        <v>18.60330671893185</v>
+        <v>19.93625635062471</v>
       </c>
       <c r="H17">
-        <v>5.85452735277899</v>
+        <v>5.828320563717782</v>
       </c>
       <c r="I17">
-        <v>3.981463997570864</v>
+        <v>3.741895096491429</v>
       </c>
       <c r="J17">
-        <v>7.137924966630958</v>
+        <v>7.990614393298129</v>
       </c>
       <c r="K17">
-        <v>19.04003745811223</v>
+        <v>17.0760283753643</v>
       </c>
       <c r="L17">
-        <v>12.92903006159373</v>
+        <v>13.24850646901572</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.04691081060623</v>
       </c>
       <c r="N17">
-        <v>13.22803028887231</v>
+        <v>12.14514792529878</v>
       </c>
       <c r="O17">
-        <v>18.65293745319264</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>12.15946773339299</v>
       </c>
       <c r="Q17">
-        <v>11.50844450561335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>18.08086221418392</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.12062314072947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.87975063978629</v>
+        <v>23.99374933745996</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.794588908192167</v>
+        <v>7.409472677860269</v>
       </c>
       <c r="E18">
-        <v>18.66370639334181</v>
+        <v>17.41598882752277</v>
       </c>
       <c r="F18">
-        <v>14.43609411840845</v>
+        <v>15.33554320492827</v>
       </c>
       <c r="G18">
-        <v>19.47183065966563</v>
+        <v>20.50539399323167</v>
       </c>
       <c r="H18">
-        <v>4.631491527616893</v>
+        <v>4.594228914658166</v>
       </c>
       <c r="I18">
-        <v>4.000910209232245</v>
+        <v>3.753820897899376</v>
       </c>
       <c r="J18">
-        <v>7.327016065839871</v>
+        <v>8.22049966658642</v>
       </c>
       <c r="K18">
-        <v>18.28504439982423</v>
+        <v>16.53896711484514</v>
       </c>
       <c r="L18">
-        <v>12.31057455017795</v>
+        <v>12.78022988655922</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.68474865432465</v>
       </c>
       <c r="N18">
-        <v>13.2891656092659</v>
+        <v>11.60539242220392</v>
       </c>
       <c r="O18">
-        <v>18.56332551203758</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>12.33527390912095</v>
       </c>
       <c r="Q18">
-        <v>11.9384632973186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>18.0488095792786</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.51704776335037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.73733207670315</v>
+        <v>23.83401187690221</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.566502410704888</v>
+        <v>7.229962456507972</v>
       </c>
       <c r="E19">
-        <v>17.53634615053477</v>
+        <v>16.44006540467788</v>
       </c>
       <c r="F19">
-        <v>15.39018574156555</v>
+        <v>16.20487833162261</v>
       </c>
       <c r="G19">
-        <v>20.68857739198224</v>
+        <v>21.5392512622415</v>
       </c>
       <c r="H19">
-        <v>3.202679056128998</v>
+        <v>3.146026707144035</v>
       </c>
       <c r="I19">
-        <v>4.002546224662334</v>
+        <v>3.753787598611655</v>
       </c>
       <c r="J19">
-        <v>7.557754745175468</v>
+        <v>8.434092253398731</v>
       </c>
       <c r="K19">
-        <v>17.48295228522362</v>
+        <v>15.98259866866979</v>
       </c>
       <c r="L19">
-        <v>11.65902641217181</v>
+        <v>12.34556485863129</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.26431931726349</v>
       </c>
       <c r="N19">
-        <v>13.54493657956465</v>
+        <v>11.04050411778</v>
       </c>
       <c r="O19">
-        <v>18.6586364532475</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>12.71589100977734</v>
       </c>
       <c r="Q19">
-        <v>12.49741548594203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.20959094609985</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.01837821110442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.10985656853451</v>
+        <v>24.18721926007617</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.310372325252082</v>
+        <v>7.023627737004277</v>
       </c>
       <c r="E20">
-        <v>16.20966639400741</v>
+        <v>15.2980056175575</v>
       </c>
       <c r="F20">
-        <v>16.88375716565918</v>
+        <v>17.53423698532067</v>
       </c>
       <c r="G20">
-        <v>22.88063343149938</v>
+        <v>23.82481295617673</v>
       </c>
       <c r="H20">
-        <v>1.77541972390736</v>
+        <v>1.68309393345273</v>
       </c>
       <c r="I20">
-        <v>3.929183462096767</v>
+        <v>3.688106385966241</v>
       </c>
       <c r="J20">
-        <v>7.916711321105681</v>
+        <v>8.61293514507244</v>
       </c>
       <c r="K20">
-        <v>16.43295169823436</v>
+        <v>15.25913700263192</v>
       </c>
       <c r="L20">
-        <v>10.90673288798379</v>
+        <v>11.89873775429309</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.61457476784246</v>
       </c>
       <c r="N20">
-        <v>14.23464882088177</v>
+        <v>10.39742562138107</v>
       </c>
       <c r="O20">
-        <v>19.21454709786451</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>13.55875344140185</v>
       </c>
       <c r="Q20">
-        <v>13.43553527379054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.85363742982855</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.83161923397029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.51472555634266</v>
+        <v>25.60706932713637</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.310051267006886</v>
+        <v>6.984164984709423</v>
       </c>
       <c r="E21">
-        <v>16.56815124476979</v>
+        <v>15.56997806428288</v>
       </c>
       <c r="F21">
-        <v>17.2291840542913</v>
+        <v>17.62465374002099</v>
       </c>
       <c r="G21">
-        <v>24.13338627469004</v>
+        <v>27.00490342852785</v>
       </c>
       <c r="H21">
-        <v>1.613133224183761</v>
+        <v>1.679234517615827</v>
       </c>
       <c r="I21">
-        <v>3.763358683998637</v>
+        <v>3.549117911746189</v>
       </c>
       <c r="J21">
-        <v>8.009921470129896</v>
+        <v>7.780602005838112</v>
       </c>
       <c r="K21">
-        <v>16.29205799935225</v>
+        <v>15.19810919149954</v>
       </c>
       <c r="L21">
-        <v>11.15926901394556</v>
+        <v>12.15439837063482</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.31817814427856</v>
       </c>
       <c r="N21">
-        <v>15.07005009738107</v>
+        <v>10.6229647146111</v>
       </c>
       <c r="O21">
-        <v>20.28237773615862</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>14.32804114757583</v>
       </c>
       <c r="Q21">
-        <v>13.84025600466894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.89427127770512</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.9625075486365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.39874396925585</v>
+        <v>26.5006789840796</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.31843746318989</v>
+        <v>6.964955023002285</v>
       </c>
       <c r="E22">
-        <v>16.83912225350728</v>
+        <v>15.77654314016121</v>
       </c>
       <c r="F22">
-        <v>17.43104587856738</v>
+        <v>17.64196278437051</v>
       </c>
       <c r="G22">
-        <v>24.89454757809068</v>
+        <v>29.08415798889344</v>
       </c>
       <c r="H22">
-        <v>1.7693318365514</v>
+        <v>1.819641781088943</v>
       </c>
       <c r="I22">
-        <v>3.649082636562376</v>
+        <v>3.450052481296592</v>
       </c>
       <c r="J22">
-        <v>8.066870612057873</v>
+        <v>7.23379779409944</v>
       </c>
       <c r="K22">
-        <v>16.22390322508246</v>
+        <v>15.18331435421721</v>
       </c>
       <c r="L22">
-        <v>11.3448301161375</v>
+        <v>12.34827780941009</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.14062242115423</v>
       </c>
       <c r="N22">
-        <v>15.54701981411612</v>
+        <v>10.78727810385744</v>
       </c>
       <c r="O22">
-        <v>20.92605287658797</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>14.75517583261611</v>
       </c>
       <c r="Q22">
-        <v>14.08880641141558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.51623996340493</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.01692616569689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.93457971033561</v>
+        <v>26.03015499266475</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.31074221733056</v>
+        <v>6.976879924475007</v>
       </c>
       <c r="E23">
-        <v>16.67113098888266</v>
+        <v>15.65637572444849</v>
       </c>
       <c r="F23">
-        <v>17.35072181517766</v>
+        <v>17.68876357684941</v>
       </c>
       <c r="G23">
-        <v>24.52265247581548</v>
+        <v>27.80341714272447</v>
       </c>
       <c r="H23">
-        <v>1.685840772802471</v>
+        <v>1.745664619351647</v>
       </c>
       <c r="I23">
-        <v>3.700941308059433</v>
+        <v>3.491283579133202</v>
       </c>
       <c r="J23">
-        <v>8.04296229324839</v>
+        <v>7.617466263400958</v>
       </c>
       <c r="K23">
-        <v>16.22612842541792</v>
+        <v>15.1557912207824</v>
       </c>
       <c r="L23">
-        <v>11.23231665297769</v>
+        <v>12.21588788137518</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.20965630505855</v>
       </c>
       <c r="N23">
-        <v>15.26700330682992</v>
+        <v>10.69138889844082</v>
       </c>
       <c r="O23">
-        <v>20.56961148713248</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>14.5103545884102</v>
       </c>
       <c r="Q23">
-        <v>13.97176307885712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.17662743038239</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.03289272941205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.08797816256337</v>
+        <v>24.16267953402066</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.28946539904395</v>
+        <v>7.008307709154503</v>
       </c>
       <c r="E24">
-        <v>16.06299324503429</v>
+        <v>15.17204330662348</v>
       </c>
       <c r="F24">
-        <v>17.03249413737675</v>
+        <v>17.66834313899578</v>
       </c>
       <c r="G24">
-        <v>23.05276863791617</v>
+        <v>23.95870797711999</v>
       </c>
       <c r="H24">
-        <v>1.76104291311014</v>
+        <v>1.667330453258938</v>
       </c>
       <c r="I24">
-        <v>3.915707855351866</v>
+        <v>3.670890158819467</v>
       </c>
       <c r="J24">
-        <v>7.951954421554968</v>
+        <v>8.649962887564348</v>
       </c>
       <c r="K24">
-        <v>16.31592980239955</v>
+        <v>15.17567231909232</v>
       </c>
       <c r="L24">
-        <v>10.82089265792874</v>
+        <v>11.83120367616123</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.55297983599504</v>
       </c>
       <c r="N24">
-        <v>14.20851585310498</v>
+        <v>10.32321771598858</v>
       </c>
       <c r="O24">
-        <v>19.18813371027171</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>13.54903302369208</v>
       </c>
       <c r="Q24">
-        <v>13.51777563799722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.83735438301558</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.90590499581707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.91890187340628</v>
+        <v>21.97645591699954</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.272110173234002</v>
+        <v>7.003077030591602</v>
       </c>
       <c r="E25">
-        <v>15.38646653984033</v>
+        <v>14.52181216699815</v>
       </c>
       <c r="F25">
-        <v>16.75680769540102</v>
+        <v>17.35103474998663</v>
       </c>
       <c r="G25">
-        <v>21.45858405423684</v>
+        <v>22.04149833500733</v>
       </c>
       <c r="H25">
-        <v>2.128205998687065</v>
+        <v>2.010558119587206</v>
       </c>
       <c r="I25">
-        <v>4.156225726765552</v>
+        <v>3.877764873295111</v>
       </c>
       <c r="J25">
-        <v>7.876002116406472</v>
+        <v>8.638853617115076</v>
       </c>
       <c r="K25">
-        <v>16.46545651440466</v>
+        <v>15.33752696225022</v>
       </c>
       <c r="L25">
-        <v>10.36189608578437</v>
+        <v>11.56531765602566</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.01801004625011</v>
       </c>
       <c r="N25">
-        <v>12.97809625520725</v>
+        <v>9.875925399185641</v>
       </c>
       <c r="O25">
-        <v>17.57872034151264</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>12.3564838078817</v>
       </c>
       <c r="Q25">
-        <v>13.06221666669519</v>
+        <v>17.23541691852666</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.45032672100982</v>
       </c>
     </row>
   </sheetData>
